--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22140" windowHeight="12460" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Z3</t>
   </si>
@@ -96,6 +96,9 @@
     <t>(a)*(b)*6789</t>
   </si>
   <si>
+    <t>my solver</t>
+  </si>
+  <si>
     <t>avg.time</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   <si>
     <t>(\Sigma)*6789</t>
   </si>
+  <si>
+    <t>Z3 trau unsat can be wrong</t>
+  </si>
 </sst>
 </file>
 
@@ -114,10 +120,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,8 +135,16 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="5" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,6 +152,29 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,24 +186,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,17 +217,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,34 +248,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -248,31 +269,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +294,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +330,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,163 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,17 +609,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,6 +622,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -642,16 +663,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,31 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,152 +711,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,60 +881,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,16 +926,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1330,7 +1301,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15.0178571428571" customWidth="1"/>
     <col min="3" max="3" width="10.5625" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="42"/>
+    <col min="7" max="7" width="9.14285714285714" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
@@ -1347,8 +1318,8 @@
         <v>2</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="3:12">
       <c r="C2" s="1"/>
@@ -1370,17 +1341,17 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
@@ -1398,16 +1369,16 @@
       <c r="H3" s="3">
         <v>35</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4">
@@ -1425,16 +1396,16 @@
       <c r="H4" s="7">
         <v>65</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="10">
         <v>0.3</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4">
@@ -1448,16 +1419,16 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="10"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
@@ -1469,22 +1440,22 @@
       <c r="F6" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
         <v>34</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="8">
         <v>0.4</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4">
@@ -1502,16 +1473,16 @@
       <c r="H7" s="7">
         <v>66</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="10">
         <v>2.8</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5">
@@ -1525,16 +1496,16 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="9"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:12">
-      <c r="A9" s="43"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2">
@@ -1552,16 +1523,16 @@
       <c r="H9" s="3">
         <v>16</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>3.7</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="43"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4">
@@ -1579,16 +1550,16 @@
       <c r="H10" s="7">
         <v>44</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="43"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5">
@@ -1602,18 +1573,18 @@
       <c r="H11" s="6">
         <v>28</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="9">
         <v>19.6</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4">
@@ -1631,16 +1602,16 @@
       <c r="H12" s="7">
         <v>33</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="10">
         <v>5.2</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4">
@@ -1658,16 +1629,16 @@
       <c r="H13" s="7">
         <v>50</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="10">
         <v>4.8</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5">
@@ -1681,18 +1652,18 @@
       <c r="H14" s="6">
         <v>17</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="9"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
@@ -1710,16 +1681,16 @@
       <c r="H15" s="3">
         <v>29</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="8" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4">
@@ -1737,16 +1708,16 @@
       <c r="H16" s="1">
         <v>57</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="4"/>
@@ -1756,16 +1727,16 @@
       <c r="H17" s="1">
         <v>14</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="10">
         <v>0.2</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5">
@@ -1781,13 +1752,13 @@
       <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="9"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1808,16 +1779,16 @@
       <c r="H19" s="3">
         <v>37</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4">
@@ -1835,16 +1806,16 @@
       <c r="H20" s="7">
         <v>46</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="4"/>
@@ -1854,16 +1825,16 @@
       <c r="H21" s="7">
         <v>17</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="10">
         <v>9.3</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="49"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="5">
@@ -1877,16 +1848,16 @@
       <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="9"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2">
@@ -1904,16 +1875,16 @@
       <c r="H23" s="3">
         <v>36</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="8">
         <v>3.2</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4">
@@ -1931,16 +1902,16 @@
       <c r="H24" s="7">
         <v>42</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="4"/>
@@ -1950,16 +1921,16 @@
       <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="10">
         <v>54</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="5">
@@ -1973,16 +1944,16 @@
       <c r="H26" s="6">
         <v>19</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="9"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="43"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7">
@@ -2000,16 +1971,16 @@
       <c r="H27" s="7">
         <v>14</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="10">
         <v>27.5</v>
       </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1">
@@ -2027,16 +1998,16 @@
       <c r="H28" s="1">
         <v>47</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1"/>
@@ -2046,16 +2017,16 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="10">
         <v>57.9</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="6">
@@ -2069,16 +2040,16 @@
       <c r="H30" s="6">
         <v>37</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="3">
@@ -2096,16 +2067,16 @@
       <c r="H31" s="3">
         <v>28</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="8">
         <v>10</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7">
@@ -2123,16 +2094,16 @@
       <c r="H32" s="7">
         <v>38</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="7"/>
@@ -2140,14 +2111,14 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="15"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="I33" s="10"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="6">
@@ -2161,40 +2132,40 @@
       <c r="H34" s="6">
         <v>34</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
+      <c r="I34" s="9"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" spans="6:12">
       <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2221,10 +2192,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2319,30 +2290,30 @@
         <v>5</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>23</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="14">
+      <c r="H3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="11">
         <v>20</v>
       </c>
-      <c r="K3" s="19"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="3">
         <v>24</v>
       </c>
       <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4"/>
@@ -2353,30 +2324,30 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="15">
+      <c r="H4" s="10">
         <v>21</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="21">
-        <v>25</v>
-      </c>
-      <c r="K4" s="22"/>
+      <c r="J4" s="12">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="1">
         <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>14</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2389,23 +2360,23 @@
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="15">
+      <c r="E5" s="10">
         <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <v>24</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="12">
         <v>24</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="10">
         <v>1</v>
       </c>
       <c r="L5" s="1">
@@ -2414,7 +2385,7 @@
       <c r="M5" s="1">
         <v>22</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2427,23 +2398,23 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <v>24</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="12">
         <v>23</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="10">
         <v>2</v>
       </c>
       <c r="L6" s="1">
@@ -2452,7 +2423,7 @@
       <c r="M6" s="1">
         <v>23</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2465,23 +2436,23 @@
         <v>5</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="16">
+      <c r="E7" s="9">
         <v>95</v>
       </c>
       <c r="F7" s="5">
         <v>29</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="16">
+      <c r="H7" s="9">
         <v>71</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="13">
         <v>92</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="9">
         <v>3</v>
       </c>
       <c r="L7" s="6">
@@ -2490,7 +2461,7 @@
       <c r="M7" s="6">
         <v>60</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="9">
         <v>3</v>
       </c>
     </row>
@@ -2505,30 +2476,30 @@
         <v>10</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="14">
+      <c r="E8" s="8">
         <v>15</v>
       </c>
       <c r="F8" s="2">
         <v>18</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="14">
+      <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="15">
         <v>24</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="3">
         <v>24</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="40"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4"/>
@@ -2539,28 +2510,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="15">
+      <c r="E9" s="10">
         <v>24</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <v>17</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30">
-        <v>25</v>
-      </c>
-      <c r="K9" s="31"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18">
+        <v>25</v>
+      </c>
+      <c r="K9" s="19"/>
       <c r="L9" s="1">
         <v>10</v>
       </c>
       <c r="M9" s="1">
         <v>15</v>
       </c>
-      <c r="N9" s="41"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4"/>
@@ -2571,28 +2542,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <v>22</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30">
-        <v>25</v>
-      </c>
-      <c r="K10" s="31"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18">
+        <v>25</v>
+      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="1">
         <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="41"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4"/>
@@ -2603,28 +2574,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <v>25</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="15">
-        <v>25</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30">
-        <v>25</v>
-      </c>
-      <c r="K11" s="31"/>
+      <c r="H11" s="10">
+        <v>25</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18">
+        <v>25</v>
+      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>25</v>
       </c>
-      <c r="N11" s="15"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5"/>
@@ -2635,30 +2606,30 @@
         <v>11</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="16">
+      <c r="E12" s="9">
         <v>89</v>
       </c>
       <c r="F12" s="5">
         <v>29</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="16">
+      <c r="H12" s="9">
         <v>71</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="20">
         <v>1</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="21">
         <v>99</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="6">
         <v>37</v>
       </c>
       <c r="M12" s="6">
         <v>63</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2673,30 +2644,30 @@
         <v>14</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="14">
+      <c r="E13" s="8">
         <v>11</v>
       </c>
       <c r="F13" s="2">
         <v>23</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="14">
+      <c r="H13" s="8">
         <v>2</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="11">
         <v>23</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="3">
         <v>22</v>
       </c>
       <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="40"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4"/>
@@ -2707,7 +2678,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <v>21</v>
       </c>
       <c r="F14" s="4">
@@ -2716,23 +2687,23 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="10">
         <v>18</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="36">
-        <v>25</v>
-      </c>
-      <c r="K14" s="15"/>
+      <c r="J14" s="23">
+        <v>25</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="L14" s="7">
         <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
-      <c r="N14" s="41"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
@@ -2741,23 +2712,23 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="15">
+      <c r="E15" s="10">
         <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="15">
+      <c r="H15" s="10">
         <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="23">
         <v>24</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="10">
         <v>1</v>
       </c>
       <c r="L15" s="7">
@@ -2766,7 +2737,7 @@
       <c r="M15" s="7">
         <v>22</v>
       </c>
-      <c r="N15" s="41"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
@@ -2775,21 +2746,21 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="15">
+      <c r="E16" s="10">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="15">
+      <c r="H16" s="10">
         <v>25</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="23">
         <v>21</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="10">
         <v>4</v>
       </c>
       <c r="L16" s="7">
@@ -2798,7 +2769,7 @@
       <c r="M16" s="7">
         <v>24</v>
       </c>
-      <c r="N16" s="41"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4"/>
@@ -2809,7 +2780,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>82</v>
       </c>
       <c r="F17" s="4">
@@ -2818,16 +2789,16 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="10">
         <v>69</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="23">
         <v>93</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="10">
         <v>5</v>
       </c>
       <c r="L17" s="7">
@@ -2836,84 +2807,87 @@
       <c r="M17" s="7">
         <v>59</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="8" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="8"/>
+      <c r="O18" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="39" t="s">
-        <v>26</v>
+      <c r="O19" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -2922,23 +2896,23 @@
         <v>25</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="4">
         <v>25</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="2">
         <v>25</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="14"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="7">
         <v>25</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="39"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="4"/>
@@ -2949,25 +2923,25 @@
         <v>25</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4">
         <v>25</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="15">
+      <c r="K21" s="10">
         <v>23</v>
       </c>
       <c r="L21" s="1">
         <v>25</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="39"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="4"/>
@@ -2978,27 +2952,27 @@
         <v>23</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="15">
+      <c r="E22" s="10">
         <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>25</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="15">
+      <c r="K22" s="10">
         <v>24</v>
       </c>
       <c r="L22" s="1">
         <v>25</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="39"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4"/>
@@ -3009,27 +2983,27 @@
         <v>9</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="15">
+      <c r="E23" s="10">
         <v>16</v>
       </c>
       <c r="F23" s="4">
         <v>25</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="15">
+      <c r="K23" s="10">
         <v>25</v>
       </c>
       <c r="L23" s="1">
         <v>25</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="39"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5"/>
@@ -3040,35 +3014,35 @@
         <v>82</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="16">
+      <c r="E24" s="9">
         <v>18</v>
       </c>
       <c r="F24" s="5">
         <v>100</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="16">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="5">
         <v>28</v>
       </c>
-      <c r="J24" s="37"/>
-      <c r="K24" s="16">
+      <c r="J24" s="6"/>
+      <c r="K24" s="9">
         <v>72</v>
       </c>
       <c r="L24" s="6">
         <v>100</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="39">
+      <c r="N24" s="9"/>
+      <c r="O24" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -3077,27 +3051,27 @@
         <v>25</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="2">
         <v>15</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="14">
+      <c r="H25" s="8">
         <v>10</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="24">
         <v>22</v>
       </c>
-      <c r="K25" s="19"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="3">
         <v>25</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="39"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4"/>
@@ -3108,31 +3082,31 @@
         <v>23</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="15">
+      <c r="E26" s="10">
         <v>2</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="15">
+      <c r="H26" s="10">
         <v>24</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="25">
         <v>24</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="10">
         <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>25</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="39"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4"/>
@@ -3143,31 +3117,31 @@
         <v>9</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="15">
+      <c r="E27" s="10">
         <v>16</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="15">
+      <c r="H27" s="10">
         <v>24</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="25">
         <v>22</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="10">
         <v>3</v>
       </c>
       <c r="L27" s="1">
         <v>25</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="39"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="4"/>
@@ -3178,31 +3152,31 @@
         <v>3</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="15">
+      <c r="E28" s="10">
         <v>22</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="15">
-        <v>25</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="H28" s="10">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="25">
         <v>24</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="10">
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>25</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="39"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5"/>
@@ -3213,37 +3187,37 @@
         <v>60</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="16">
+      <c r="E29" s="9">
         <v>40</v>
       </c>
       <c r="F29" s="5">
         <v>17</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="16">
+      <c r="H29" s="9">
         <v>83</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="26">
         <v>92</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="9">
         <v>5</v>
       </c>
       <c r="L29" s="6">
         <v>100</v>
       </c>
       <c r="M29" s="6"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="39">
+      <c r="N29" s="9"/>
+      <c r="O29" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -3252,27 +3226,27 @@
         <v>25</v>
       </c>
       <c r="D30" s="3"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="2">
         <v>19</v>
       </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="14">
+      <c r="H30" s="8">
         <v>6</v>
       </c>
       <c r="I30" s="2">
         <v>22</v>
       </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="14">
+      <c r="K30" s="8">
         <v>3</v>
       </c>
       <c r="L30" s="3">
         <v>25</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="39"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4"/>
@@ -3283,27 +3257,27 @@
         <v>25</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="4">
         <v>4</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="15">
+      <c r="H31" s="10">
         <v>21</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="15">
+      <c r="K31" s="10">
         <v>24</v>
       </c>
       <c r="L31" s="7">
         <v>25</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="39"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4"/>
@@ -3314,29 +3288,29 @@
         <v>16</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="15">
+      <c r="E32" s="10">
         <v>9</v>
       </c>
       <c r="F32" s="4">
         <v>4</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="15">
+      <c r="H32" s="10">
         <v>21</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="15">
+      <c r="K32" s="10">
         <v>25</v>
       </c>
       <c r="L32" s="7">
         <v>25</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="39"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4"/>
@@ -3347,29 +3321,29 @@
         <v>2</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="15">
+      <c r="E33" s="10">
         <v>23</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="15">
+      <c r="H33" s="10">
         <v>25</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="15">
+      <c r="K33" s="10">
         <v>25</v>
       </c>
       <c r="L33" s="7">
         <v>25</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="39"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5"/>
@@ -3380,34 +3354,41 @@
         <v>68</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="16">
+      <c r="E34" s="9">
         <v>32</v>
       </c>
       <c r="F34" s="5">
         <v>27</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="16">
+      <c r="H34" s="9">
         <v>73</v>
       </c>
       <c r="I34" s="5">
         <v>24</v>
       </c>
       <c r="J34" s="6"/>
-      <c r="K34" s="16">
+      <c r="K34" s="9">
         <v>76</v>
       </c>
       <c r="L34" s="6">
         <v>100</v>
       </c>
       <c r="M34" s="6"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="39">
+      <c r="N34" s="9"/>
+      <c r="O34" s="1">
         <v>15</v>
       </c>
     </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -3416,6 +3397,7 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L18:N18"/>
+    <mergeCell ref="I36:K36"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Z3</t>
   </si>
@@ -75,6 +75,9 @@
     <t>TIMEOUT=60s</t>
   </si>
   <si>
+    <t>k的含义见下</t>
+  </si>
+  <si>
     <t>Trau</t>
   </si>
   <si>
@@ -111,7 +114,13 @@
     <t>(\Sigma)*6789</t>
   </si>
   <si>
+    <t>Mod[Mod[parseInt(PATTERN),m1],m2]=0</t>
+  </si>
+  <si>
     <t>Z3 trau unsat can be wrong</t>
+  </si>
+  <si>
+    <t>10^k&lt;=m1 &lt;= 10^(k+1)</t>
   </si>
 </sst>
 </file>
@@ -125,10 +134,17 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -711,152 +727,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,22 +903,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,25 +945,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1292,8 +1314,8 @@
   <sheetPr/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1301,7 +1323,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15.0178571428571" customWidth="1"/>
     <col min="3" max="3" width="10.5625" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="30"/>
+    <col min="7" max="7" width="9.14285714285714" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12">
@@ -1318,8 +1340,8 @@
         <v>2</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="3:12">
       <c r="C2" s="1"/>
@@ -1341,17 +1363,17 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
@@ -1376,9 +1398,9 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4">
@@ -1396,16 +1418,16 @@
       <c r="H4" s="7">
         <v>65</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="13">
         <v>0.3</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4">
@@ -1419,16 +1441,16 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="13"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
@@ -1440,7 +1462,7 @@
       <c r="F6" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
@@ -1453,9 +1475,9 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4">
@@ -1473,16 +1495,16 @@
       <c r="H7" s="7">
         <v>66</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="13">
         <v>2.8</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5">
@@ -1501,11 +1523,11 @@
       <c r="L8" s="7"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:12">
-      <c r="A9" s="31"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2">
@@ -1526,13 +1548,13 @@
       <c r="I9" s="8">
         <v>3.7</v>
       </c>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="31"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="32" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4">
@@ -1550,16 +1572,16 @@
       <c r="H10" s="7">
         <v>44</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="31"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="32" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5">
@@ -1576,15 +1598,15 @@
       <c r="I11" s="9">
         <v>19.6</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4">
@@ -1602,16 +1624,16 @@
       <c r="H12" s="7">
         <v>33</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="13">
         <v>5.2</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4">
@@ -1629,16 +1651,16 @@
       <c r="H13" s="7">
         <v>50</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="13">
         <v>4.8</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5">
@@ -1657,13 +1679,13 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="36" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
@@ -1688,9 +1710,9 @@
       <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4">
@@ -1708,16 +1730,16 @@
       <c r="H16" s="1">
         <v>57</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="4"/>
@@ -1727,16 +1749,16 @@
       <c r="H17" s="1">
         <v>14</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="13">
         <v>0.2</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5">
@@ -1757,8 +1779,8 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1786,9 +1808,9 @@
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4">
@@ -1806,16 +1828,16 @@
       <c r="H20" s="7">
         <v>46</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="4"/>
@@ -1825,16 +1847,16 @@
       <c r="H21" s="7">
         <v>17</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="13">
         <v>9.3</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="37"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="5">
@@ -1853,11 +1875,11 @@
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2">
@@ -1882,9 +1904,9 @@
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4">
@@ -1902,16 +1924,16 @@
       <c r="H24" s="7">
         <v>42</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="4"/>
@@ -1921,16 +1943,16 @@
       <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="13">
         <v>54</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="5">
@@ -1949,11 +1971,11 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7">
@@ -1971,16 +1993,16 @@
       <c r="H27" s="7">
         <v>14</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="13">
         <v>27.5</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1">
@@ -1998,16 +2020,16 @@
       <c r="H28" s="1">
         <v>47</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1"/>
@@ -2017,16 +2039,16 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="13">
         <v>57.9</v>
       </c>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="6">
@@ -2041,15 +2063,15 @@
         <v>37</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="33" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="3">
@@ -2070,13 +2092,13 @@
       <c r="I31" s="8">
         <v>10</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7">
@@ -2094,16 +2116,16 @@
       <c r="H32" s="7">
         <v>38</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="7"/>
@@ -2111,14 +2133,14 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="10"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="I33" s="13"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="6">
@@ -2133,45 +2155,47 @@
         <v>34</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
     </row>
     <row r="35" spans="11:12">
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
     </row>
     <row r="36" spans="6:12">
-      <c r="F36" t="s">
+      <c r="F36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
+      <c r="G36" s="10"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
     </row>
     <row r="37" spans="11:12">
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
     </row>
     <row r="38" spans="11:12">
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A15:A34"/>
     <mergeCell ref="B3:B5"/>
@@ -2192,15 +2216,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="14.2410714285714" customWidth="1"/>
     <col min="4" max="4" width="9.96428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.4553571428571" customWidth="1"/>
     <col min="6" max="6" width="10.4107142857143" customWidth="1"/>
@@ -2213,7 +2238,9 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2225,7 +2252,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2237,10 +2264,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2281,7 +2308,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -2303,7 +2330,7 @@
       <c r="I3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="14">
         <v>20</v>
       </c>
       <c r="K3" s="8"/>
@@ -2324,30 +2351,30 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="10">
+      <c r="E4" s="13">
         <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="10">
+      <c r="H4" s="13">
         <v>21</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
-        <v>25</v>
-      </c>
-      <c r="K4" s="10"/>
+      <c r="J4" s="15">
+        <v>25</v>
+      </c>
+      <c r="K4" s="13"/>
       <c r="L4" s="1">
         <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>14</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2360,23 +2387,23 @@
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="10">
+      <c r="E5" s="13">
         <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="10">
+      <c r="H5" s="13">
         <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="15">
         <v>24</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="13">
         <v>1</v>
       </c>
       <c r="L5" s="1">
@@ -2385,7 +2412,7 @@
       <c r="M5" s="1">
         <v>22</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2398,23 +2425,23 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="10">
+      <c r="E6" s="13">
         <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="10">
+      <c r="H6" s="13">
         <v>24</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="15">
         <v>23</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="13">
         <v>2</v>
       </c>
       <c r="L6" s="1">
@@ -2423,14 +2450,14 @@
       <c r="M6" s="1">
         <v>23</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -2449,7 +2476,7 @@
       <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="16">
         <v>92</v>
       </c>
       <c r="K7" s="9">
@@ -2467,7 +2494,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -2486,20 +2513,20 @@
       <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="18">
         <v>24</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="3">
         <v>24</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="30"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4"/>
@@ -2510,28 +2537,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="10">
+      <c r="E9" s="13">
         <v>24</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="10">
+      <c r="H9" s="13">
         <v>17</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18">
-        <v>25</v>
-      </c>
-      <c r="K9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21">
+        <v>25</v>
+      </c>
+      <c r="K9" s="22"/>
       <c r="L9" s="1">
         <v>10</v>
       </c>
       <c r="M9" s="1">
         <v>15</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4"/>
@@ -2542,28 +2569,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="10">
+      <c r="E10" s="13">
         <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="10">
+      <c r="H10" s="13">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18">
-        <v>25</v>
-      </c>
-      <c r="K10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21">
+        <v>25</v>
+      </c>
+      <c r="K10" s="22"/>
       <c r="L10" s="1">
         <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="29"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4"/>
@@ -2574,33 +2601,33 @@
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="10">
+      <c r="E11" s="13">
         <v>25</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="10">
-        <v>25</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18">
-        <v>25</v>
-      </c>
-      <c r="K11" s="19"/>
+      <c r="H11" s="13">
+        <v>25</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21">
+        <v>25</v>
+      </c>
+      <c r="K11" s="22"/>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>25</v>
       </c>
-      <c r="N11" s="10"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -2616,13 +2643,13 @@
       <c r="H12" s="9">
         <v>71</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="23">
         <v>1</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="24">
         <v>99</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="6">
         <v>37</v>
       </c>
@@ -2635,7 +2662,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2657,7 +2684,7 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="14">
         <v>23</v>
       </c>
       <c r="K13" s="8"/>
@@ -2667,7 +2694,7 @@
       <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="28"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4"/>
@@ -2678,7 +2705,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="10">
+      <c r="E14" s="13">
         <v>21</v>
       </c>
       <c r="F14" s="4">
@@ -2687,23 +2714,23 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="13">
         <v>18</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="23">
-        <v>25</v>
-      </c>
-      <c r="K14" s="10"/>
+      <c r="J14" s="26">
+        <v>25</v>
+      </c>
+      <c r="K14" s="13"/>
       <c r="L14" s="7">
         <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
-      <c r="N14" s="29"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4"/>
@@ -2712,23 +2739,23 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="10">
+      <c r="E15" s="13">
         <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="10">
+      <c r="H15" s="13">
         <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="26">
         <v>24</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="13">
         <v>1</v>
       </c>
       <c r="L15" s="7">
@@ -2737,7 +2764,7 @@
       <c r="M15" s="7">
         <v>22</v>
       </c>
-      <c r="N15" s="29"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4"/>
@@ -2746,21 +2773,21 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="10">
+      <c r="E16" s="13">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="10">
+      <c r="H16" s="13">
         <v>25</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="26">
         <v>21</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="13">
         <v>4</v>
       </c>
       <c r="L16" s="7">
@@ -2769,18 +2796,18 @@
       <c r="M16" s="7">
         <v>24</v>
       </c>
-      <c r="N16" s="29"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>18</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="10">
+      <c r="E17" s="13">
         <v>82</v>
       </c>
       <c r="F17" s="4">
@@ -2789,16 +2816,16 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="13">
         <v>69</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="26">
         <v>93</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="13">
         <v>5</v>
       </c>
       <c r="L17" s="7">
@@ -2807,7 +2834,7 @@
       <c r="M17" s="7">
         <v>59</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2825,7 +2852,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
       <c r="I18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2835,15 +2862,15 @@
       <c r="M18" s="3"/>
       <c r="N18" s="8"/>
       <c r="O18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
@@ -2882,12 +2909,12 @@
         <v>10</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -2896,12 +2923,12 @@
         <v>25</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="4">
         <v>25</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="2">
         <v>25</v>
       </c>
@@ -2911,7 +2938,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="13"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
@@ -2923,24 +2950,24 @@
         <v>25</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="4">
         <v>25</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="10">
+      <c r="K21" s="13">
         <v>23</v>
       </c>
       <c r="L21" s="1">
         <v>25</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
@@ -2952,26 +2979,26 @@
         <v>23</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="10">
+      <c r="E22" s="13">
         <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>25</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="10">
+      <c r="K22" s="13">
         <v>24</v>
       </c>
       <c r="L22" s="1">
         <v>25</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
@@ -2983,32 +3010,32 @@
         <v>9</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="10">
+      <c r="E23" s="13">
         <v>16</v>
       </c>
       <c r="F23" s="4">
         <v>25</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="13"/>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10">
+      <c r="K23" s="13">
         <v>25</v>
       </c>
       <c r="L23" s="1">
         <v>25</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5">
         <v>82</v>
@@ -3042,7 +3069,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -3062,7 +3089,7 @@
       <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="27">
         <v>22</v>
       </c>
       <c r="K25" s="8"/>
@@ -3070,7 +3097,7 @@
         <v>25</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="28"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15">
@@ -3082,30 +3109,30 @@
         <v>23</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="10">
+      <c r="E26" s="13">
         <v>2</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="10">
+      <c r="H26" s="13">
         <v>24</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="28">
         <v>24</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="13">
         <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>25</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="29"/>
+      <c r="N26" s="31"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15">
@@ -3117,30 +3144,30 @@
         <v>9</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="10">
+      <c r="E27" s="13">
         <v>16</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="10">
+      <c r="H27" s="13">
         <v>24</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="28">
         <v>22</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="13">
         <v>3</v>
       </c>
       <c r="L27" s="1">
         <v>25</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15">
@@ -3152,36 +3179,36 @@
         <v>3</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="10">
+      <c r="E28" s="13">
         <v>22</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="10">
+      <c r="H28" s="13">
         <v>25</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="28">
         <v>24</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="13">
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>25</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="13"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5">
         <v>60</v>
@@ -3200,7 +3227,7 @@
       <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="29">
         <v>92</v>
       </c>
       <c r="K29" s="9">
@@ -3217,7 +3244,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -3245,7 +3272,7 @@
         <v>25</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="28"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
@@ -3257,26 +3284,26 @@
         <v>25</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="4">
         <v>4</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="10">
+      <c r="H31" s="13">
         <v>21</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="10">
+      <c r="K31" s="13">
         <v>24</v>
       </c>
       <c r="L31" s="7">
         <v>25</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
@@ -3288,28 +3315,28 @@
         <v>16</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="10">
+      <c r="E32" s="13">
         <v>9</v>
       </c>
       <c r="F32" s="4">
         <v>4</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="10">
+      <c r="H32" s="13">
         <v>21</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="10">
+      <c r="K32" s="13">
         <v>25</v>
       </c>
       <c r="L32" s="7">
         <v>25</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="N32" s="29"/>
+      <c r="N32" s="31"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15">
@@ -3321,34 +3348,34 @@
         <v>2</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="10">
+      <c r="E33" s="13">
         <v>23</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="10">
+      <c r="H33" s="13">
         <v>25</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="10">
+      <c r="K33" s="13">
         <v>25</v>
       </c>
       <c r="L33" s="7">
         <v>25</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="31"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="5">
         <v>68</v>
@@ -3380,15 +3407,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="9:11">
-      <c r="I36" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="I36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -3397,7 +3440,9 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L18:N18"/>
+    <mergeCell ref="A36:E36"/>
     <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12460" activeTab="1"/>
+    <workbookView windowWidth="21660" windowHeight="12460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Z3</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>TIMEOUT=60s</t>
-  </si>
-  <si>
-    <t>k的含义见下</t>
   </si>
   <si>
     <t>Trau</t>
@@ -1314,8 +1311,8 @@
   <sheetPr/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="94" zoomScaleNormal="94" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2218,8 +2215,8 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2238,9 +2235,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2247,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2264,10 +2259,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -2308,7 +2303,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -2457,7 +2452,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -2494,7 +2489,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -2627,7 +2622,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -2662,7 +2657,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2801,7 +2796,7 @@
     <row r="17" spans="1:14">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4">
         <v>18</v>
@@ -2852,7 +2847,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
       <c r="I18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2862,15 +2857,15 @@
       <c r="M18" s="3"/>
       <c r="N18" s="8"/>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
@@ -2909,12 +2904,12 @@
         <v>10</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -3035,7 +3030,7 @@
     <row r="24" spans="1:15">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="5">
         <v>82</v>
@@ -3069,7 +3064,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -3208,7 +3203,7 @@
     <row r="29" spans="1:15">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5">
         <v>60</v>
@@ -3244,7 +3239,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -3375,7 +3370,7 @@
     <row r="34" spans="1:15">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="5">
         <v>68</v>
@@ -3409,21 +3404,21 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Document/research/Researchlogs/data/string/parseInt/PAexp-Solver/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD8DDE9-0C59-854E-A233-33F1462BEE29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21660" windowHeight="12460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>Z3</t>
   </si>
@@ -123,376 +129,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="5" tint="-0.25"/>
-      <name val="宋体"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -621,255 +300,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -900,15 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,77 +403,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1303,44 +732,44 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="15.0178571428571" customWidth="1"/>
-    <col min="3" max="3" width="10.5625" customWidth="1"/>
-    <col min="7" max="7" width="9.14285714285714" style="32"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="3:12">
+      <c r="I1" s="36"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1360,23 +789,23 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="3">
@@ -1385,25 +814,25 @@
       <c r="G3" s="3">
         <v>1.2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="47">
         <v>35</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="45" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4">
         <v>37</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7">
@@ -1412,25 +841,25 @@
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="46">
         <v>65</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <v>0.3</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4">
         <v>32</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="7">
         <v>36</v>
       </c>
@@ -1438,31 +867,31 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="10"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3">
         <v>16</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="47">
         <v>34</v>
       </c>
       <c r="I6" s="8">
@@ -1471,16 +900,16 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="7">
@@ -1489,19 +918,19 @@
       <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="46">
         <v>66</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="10">
         <v>2.8</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5">
@@ -1519,12 +948,12 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:12">
-      <c r="A9" s="33"/>
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2">
@@ -1536,28 +965,28 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="47">
         <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>3.7</v>
       </c>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="33"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="4">
         <v>30</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="7">
@@ -1566,19 +995,19 @@
       <c r="G10" s="7">
         <v>0.2</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="46">
         <v>44</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34" t="s">
+      <c r="I10" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5">
@@ -1593,50 +1022,50 @@
         <v>28</v>
       </c>
       <c r="I11" s="9">
-        <v>19.6</v>
-      </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33" t="s">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4">
         <v>20</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="46">
         <v>0.2</v>
       </c>
       <c r="F12" s="7">
         <v>15</v>
       </c>
       <c r="G12" s="7">
-        <v>8.2</v>
-      </c>
-      <c r="H12" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H12" s="46">
         <v>33</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="10">
         <v>5.2</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4">
         <v>22</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="46" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="7">
@@ -1645,19 +1074,19 @@
       <c r="G13" s="7">
         <v>0.2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="46">
         <v>50</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="10">
         <v>4.8</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="5">
@@ -1668,28 +1097,28 @@
         <v>62</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="H14" s="51">
         <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="50">
         <v>29</v>
       </c>
       <c r="E15" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F15" s="3">
         <v>25</v>
@@ -1697,19 +1126,19 @@
       <c r="G15" s="3">
         <v>0.7</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="47">
         <v>29</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="45" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4">
@@ -1724,19 +1153,19 @@
       <c r="G16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="49">
         <v>57</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="48" t="s">
         <v>8</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="4"/>
@@ -1746,16 +1175,16 @@
       <c r="H17" s="1">
         <v>14</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="10">
         <v>0.2</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5">
@@ -1768,16 +1197,16 @@
       <c r="G18" s="6">
         <v>23</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="51">
         <v>0</v>
       </c>
       <c r="I18" s="9"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1786,7 +1215,7 @@
       <c r="D19" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="47" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3">
@@ -1795,7 +1224,7 @@
       <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="47">
         <v>37</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -1804,10 +1233,10 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4">
@@ -1822,19 +1251,19 @@
       <c r="G20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="46">
         <v>46</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="48" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="4"/>
@@ -1844,16 +1273,16 @@
       <c r="H21" s="7">
         <v>17</v>
       </c>
-      <c r="I21" s="13">
-        <v>9.3</v>
+      <c r="I21" s="10">
+        <v>9.3000000000000007</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="5">
@@ -1864,19 +1293,19 @@
         <v>56</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6">
+      <c r="H22" s="51">
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2">
@@ -1888,10 +1317,10 @@
       <c r="F23" s="3">
         <v>13</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="47">
         <v>36</v>
       </c>
       <c r="I23" s="8">
@@ -1900,10 +1329,10 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4">
@@ -1918,19 +1347,19 @@
       <c r="G24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="46">
         <v>42</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="48" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="4"/>
@@ -1940,16 +1369,16 @@
       <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="10">
         <v>54</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="31" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="5">
@@ -1960,25 +1389,25 @@
         <v>67</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6">
+      <c r="H26" s="51">
         <v>19</v>
       </c>
       <c r="I26" s="9"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="33"/>
-      <c r="B27" s="35" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="46">
         <v>23</v>
       </c>
       <c r="F27" s="7">
@@ -1987,19 +1416,19 @@
       <c r="G27" s="7">
         <v>39</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="46">
         <v>14</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="10">
         <v>27.5</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33" t="s">
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1">
@@ -2014,19 +1443,19 @@
       <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="49">
         <v>47</v>
       </c>
-      <c r="I28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33" t="s">
+      <c r="I28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="1"/>
@@ -2036,16 +1465,16 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="10">
         <v>57.9</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="6">
@@ -2056,22 +1485,22 @@
         <v>74</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="6">
+      <c r="H30" s="51">
         <v>37</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33" t="s">
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="47">
         <v>29</v>
       </c>
       <c r="E31" s="3">
@@ -2080,7 +1509,7 @@
       <c r="F31" s="3">
         <v>11</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="47" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="3">
@@ -2089,13 +1518,13 @@
       <c r="I31" s="8">
         <v>10</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33" t="s">
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7">
@@ -2110,19 +1539,19 @@
       <c r="G32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="46">
         <v>38</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
+      <c r="I32" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="7"/>
@@ -2130,14 +1559,14 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="13"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33" t="s">
+      <c r="I33" s="10"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="6">
@@ -2148,44 +1577,44 @@
         <v>69</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6">
+      <c r="H34" s="51">
         <v>34</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="11:12">
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-    </row>
-    <row r="36" spans="6:12">
-      <c r="F36" s="10" t="s">
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F36" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-    </row>
-    <row r="37" spans="11:12">
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-    </row>
-    <row r="38" spans="11:12">
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-    </row>
-    <row r="40" spans="11:12">
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-    </row>
-    <row r="41" spans="11:12">
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
+      <c r="G36" s="36"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2205,59 +1634,57 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B34"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.25" customWidth="1"/>
-    <col min="2" max="2" width="14.2410714285714" customWidth="1"/>
-    <col min="4" max="4" width="9.96428571428571" customWidth="1"/>
-    <col min="5" max="5" width="10.4553571428571" customWidth="1"/>
-    <col min="6" max="6" width="10.4107142857143" customWidth="1"/>
-    <col min="7" max="7" width="11.3035714285714" customWidth="1"/>
-    <col min="8" max="8" width="10.4553571428571" customWidth="1"/>
-    <col min="10" max="10" width="8.71428571428571" customWidth="1"/>
-    <col min="11" max="11" width="11.0089285714286" customWidth="1"/>
-    <col min="14" max="14" width="11.0089285714286" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2301,8 +1728,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="3">
@@ -2325,7 +1752,7 @@
       <c r="I3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="11">
         <v>20</v>
       </c>
       <c r="K3" s="8"/>
@@ -2337,8 +1764,8 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2346,35 +1773,35 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <v>21</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="15">
-        <v>25</v>
-      </c>
-      <c r="K4" s="13"/>
+      <c r="J4" s="12">
+        <v>25</v>
+      </c>
+      <c r="K4" s="10"/>
       <c r="L4" s="1">
         <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>14</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -2382,23 +1809,23 @@
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="12">
         <v>24</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <v>1</v>
       </c>
       <c r="L5" s="1">
@@ -2407,12 +1834,12 @@
       <c r="M5" s="1">
         <v>22</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2420,23 +1847,23 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>24</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <v>23</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <v>2</v>
       </c>
       <c r="L6" s="1">
@@ -2445,12 +1872,12 @@
       <c r="M6" s="1">
         <v>23</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -2471,7 +1898,7 @@
       <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>92</v>
       </c>
       <c r="K7" s="9">
@@ -2487,8 +1914,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="3">
@@ -2508,23 +1935,23 @@
       <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>1</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <v>24</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="3">
         <v>24</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
+      <c r="N8" s="27"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -2532,31 +1959,31 @@
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>24</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>17</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21">
-        <v>25</v>
-      </c>
-      <c r="K9" s="22"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18">
+        <v>25</v>
+      </c>
+      <c r="K9" s="19"/>
       <c r="L9" s="1">
         <v>10</v>
       </c>
       <c r="M9" s="1">
         <v>15</v>
       </c>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4"/>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -2564,31 +1991,31 @@
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>22</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21">
-        <v>25</v>
-      </c>
-      <c r="K10" s="22"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18">
+        <v>25</v>
+      </c>
+      <c r="K10" s="19"/>
       <c r="L10" s="1">
         <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4"/>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -2596,31 +2023,31 @@
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>25</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="13">
-        <v>25</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21">
-        <v>25</v>
-      </c>
-      <c r="K11" s="22"/>
+      <c r="H11" s="10">
+        <v>25</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18">
+        <v>25</v>
+      </c>
+      <c r="K11" s="19"/>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>25</v>
       </c>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="5"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
@@ -2638,13 +2065,13 @@
       <c r="H12" s="9">
         <v>71</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="20">
         <v>1</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="21">
         <v>99</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="6">
         <v>37</v>
       </c>
@@ -2655,8 +2082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3">
@@ -2679,7 +2106,7 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="11">
         <v>23</v>
       </c>
       <c r="K13" s="8"/>
@@ -2689,10 +2116,10 @@
       <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
@@ -2700,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>21</v>
       </c>
       <c r="F14" s="4">
@@ -2709,48 +2136,48 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>18</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="26">
-        <v>25</v>
-      </c>
-      <c r="K14" s="13"/>
+      <c r="J14" s="23">
+        <v>25</v>
+      </c>
+      <c r="K14" s="10"/>
       <c r="L14" s="7">
         <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
+      <c r="N14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="13">
+      <c r="H15" s="10">
         <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="23">
         <v>24</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <v>1</v>
       </c>
       <c r="L15" s="7">
@@ -2759,30 +2186,30 @@
       <c r="M15" s="7">
         <v>22</v>
       </c>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
       <c r="B16" s="7">
         <v>5</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="13">
+      <c r="H16" s="10">
         <v>25</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="23">
         <v>21</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <v>4</v>
       </c>
       <c r="L16" s="7">
@@ -2791,10 +2218,10 @@
       <c r="M16" s="7">
         <v>24</v>
       </c>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4"/>
+      <c r="N16" s="28"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="43"/>
       <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
@@ -2802,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>82</v>
       </c>
       <c r="F17" s="4">
@@ -2811,16 +2238,16 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <v>69</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="23">
         <v>93</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <v>5</v>
       </c>
       <c r="L17" s="7">
@@ -2829,38 +2256,38 @@
       <c r="M17" s="7">
         <v>59</v>
       </c>
-      <c r="N17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2" t="s">
+      <c r="C18" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="39"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2" t="s">
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="8"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="41"/>
       <c r="O18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2907,8 +2334,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="7">
@@ -2918,12 +2345,12 @@
         <v>25</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="13"/>
+      <c r="E20" s="10"/>
       <c r="F20" s="4">
         <v>25</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="2">
         <v>25</v>
       </c>
@@ -2933,11 +2360,11 @@
         <v>25</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="13"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="43"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -2945,28 +2372,28 @@
         <v>25</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="13"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="4">
         <v>25</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="13">
+      <c r="K21" s="10">
         <v>23</v>
       </c>
       <c r="L21" s="1">
         <v>25</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -2974,30 +2401,30 @@
         <v>23</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>25</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="13">
+      <c r="K22" s="10">
         <v>24</v>
       </c>
       <c r="L22" s="1">
         <v>25</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="13"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="43"/>
       <c r="B23" s="1">
         <v>5</v>
       </c>
@@ -3005,30 +2432,30 @@
         <v>9</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <v>16</v>
       </c>
       <c r="F23" s="4">
         <v>25</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="13">
+      <c r="K23" s="10">
         <v>25</v>
       </c>
       <c r="L23" s="1">
         <v>25</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="13"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
       <c r="B24" s="6" t="s">
         <v>23</v>
       </c>
@@ -3062,8 +2489,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="3">
@@ -3084,7 +2511,7 @@
       <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="24">
         <v>22</v>
       </c>
       <c r="K25" s="8"/>
@@ -3092,11 +2519,11 @@
         <v>25</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="30"/>
+      <c r="N25" s="27"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -3104,34 +2531,34 @@
         <v>23</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <v>2</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="13">
+      <c r="H26" s="10">
         <v>24</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="25">
         <v>24</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K26" s="10">
         <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>25</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="31"/>
+      <c r="N26" s="28"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
       <c r="B27" s="1">
         <v>4</v>
       </c>
@@ -3139,34 +2566,34 @@
         <v>9</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <v>16</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="13">
+      <c r="H27" s="10">
         <v>24</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J27" s="25">
         <v>22</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="10">
         <v>3</v>
       </c>
       <c r="L27" s="1">
         <v>25</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="31"/>
+      <c r="N27" s="28"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="43"/>
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -3174,34 +2601,34 @@
         <v>3</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="13">
+      <c r="E28" s="10">
         <v>22</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="13">
+      <c r="H28" s="10">
         <v>25</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="25">
         <v>24</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="10">
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>25</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="13"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
@@ -3222,7 +2649,7 @@
       <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="26">
         <v>92</v>
       </c>
       <c r="K29" s="9">
@@ -3237,8 +2664,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -3267,11 +2694,11 @@
         <v>25</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="30"/>
+      <c r="N30" s="27"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="43"/>
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -3279,30 +2706,30 @@
         <v>25</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="13"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="4">
         <v>4</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="13">
+      <c r="H31" s="10">
         <v>21</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="13">
+      <c r="K31" s="10">
         <v>24</v>
       </c>
       <c r="L31" s="7">
         <v>25</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="31"/>
+      <c r="N31" s="28"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="43"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -3310,32 +2737,32 @@
         <v>16</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="13">
+      <c r="E32" s="10">
         <v>9</v>
       </c>
       <c r="F32" s="4">
         <v>4</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="13">
+      <c r="H32" s="10">
         <v>21</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="13">
+      <c r="K32" s="10">
         <v>25</v>
       </c>
       <c r="L32" s="7">
         <v>25</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="N32" s="31"/>
+      <c r="N32" s="28"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="43"/>
       <c r="B33" s="7">
         <v>5</v>
       </c>
@@ -3343,32 +2770,32 @@
         <v>2</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="13">
+      <c r="E33" s="10">
         <v>23</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="13">
+      <c r="H33" s="10">
         <v>25</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="13">
+      <c r="K33" s="10">
         <v>25</v>
       </c>
       <c r="L33" s="7">
         <v>25</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="31"/>
+      <c r="N33" s="28"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="44"/>
       <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
@@ -3402,39 +2829,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="I36" s="10" t="s">
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="I36" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="11" t="s">
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="A37:E37"/>
@@ -3444,8 +2863,15 @@
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Document/research/Researchlogs/data/string/parseInt/PAexp-Solver/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD8DDE9-0C59-854E-A233-33F1462BEE29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22780" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Z3</t>
   </si>
@@ -53,6 +47,9 @@
     <t>UNSAT</t>
   </si>
   <si>
+    <t>B-UNSAT</t>
+  </si>
+  <si>
     <t>TIMEOUT</t>
   </si>
   <si>
@@ -69,16 +66,7 @@
     <t>BOUNDED</t>
   </si>
   <si>
-    <t>1-2-2-3</t>
-  </si>
-  <si>
-    <t>B-UNSAT</t>
-  </si>
-  <si>
     <t>0,6</t>
-  </si>
-  <si>
-    <t>TIMEOUT=60s</t>
   </si>
   <si>
     <t>Trau</t>
@@ -129,49 +117,383 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -269,6 +591,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -288,25 +647,254 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +925,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,15 +970,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -397,84 +979,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -732,44 +1382,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="29"/>
+    <col min="7" max="7" width="9.16071428571429" style="27"/>
+    <col min="11" max="11" width="17.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9">
       <c r="C1" s="1"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="3:9">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -789,23 +1438,21 @@
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>31</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="3">
@@ -814,25 +1461,23 @@
       <c r="G3" s="3">
         <v>1.2</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="3">
         <v>35</v>
       </c>
-      <c r="I3" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="31" t="s">
+      <c r="I3" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>37</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="7">
@@ -841,372 +1486,310 @@
       <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="7">
         <v>65</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>36</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3">
+        <v>16</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7">
+        <v>55</v>
+      </c>
+      <c r="I8" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:9">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48">
+        <v>11</v>
+      </c>
+      <c r="I9" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6">
+        <v>51</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>60</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="30"/>
+      <c r="B11" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7">
         <v>0.3</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="31" t="s">
+      <c r="H12" s="7">
+        <v>77</v>
+      </c>
+      <c r="I12" s="11">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="30"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
-        <v>32</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="7">
-        <v>36</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48">
+        <v>23</v>
+      </c>
+      <c r="I13" s="55">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="30"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>27</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3">
-        <v>16</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="47">
-        <v>34</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4">
-        <v>22</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="7">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="46">
-        <v>66</v>
-      </c>
-      <c r="I7" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>51</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>60</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="47">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4">
-        <v>30</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="7">
-        <v>31</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="46">
-        <v>44</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>66</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
-        <v>69</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
-        <v>28</v>
-      </c>
-      <c r="I11" s="9">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4">
-        <v>20</v>
-      </c>
-      <c r="E12" s="46">
-        <v>0.2</v>
-      </c>
-      <c r="F12" s="7">
-        <v>15</v>
-      </c>
-      <c r="G12" s="7">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H12" s="46">
-        <v>33</v>
-      </c>
-      <c r="I12" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>22</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="7">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="46">
-        <v>50</v>
-      </c>
-      <c r="I13" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5">
-        <v>58</v>
+      <c r="D14" s="6">
+        <v>62</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="51">
-        <v>17</v>
+      <c r="H14" s="6">
+        <v>0</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="3">
         <v>15</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="50">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F15" s="3">
-        <v>25</v>
-      </c>
       <c r="G15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H15" s="47">
-        <v>29</v>
-      </c>
-      <c r="I15" s="45" t="s">
+        <v>8.2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>30</v>
+      </c>
+      <c r="I15" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7">
+        <v>22</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>52</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="7">
+        <v>23</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>44</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="49">
-        <v>57</v>
-      </c>
-      <c r="I16" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
-        <v>14</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48">
+        <v>1</v>
+      </c>
+      <c r="I17" s="55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>19</v>
+      <c r="B18" s="33"/>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6">
+        <v>58</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6">
-        <v>23</v>
-      </c>
-      <c r="G18" s="6">
-        <v>23</v>
-      </c>
-      <c r="H18" s="51">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1215,7 +1798,7 @@
       <c r="D19" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="3">
@@ -1224,19 +1807,17 @@
       <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="43">
         <v>37</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="40"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4">
@@ -1251,20 +1832,18 @@
       <c r="G20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="50">
         <v>46</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="31" t="s">
-        <v>16</v>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="40"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="7"/>
@@ -1273,17 +1852,15 @@
       <c r="H21" s="7">
         <v>17</v>
       </c>
-      <c r="I21" s="10">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="31" t="s">
-        <v>10</v>
+      <c r="I21" s="11">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="40"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D22" s="5">
         <v>38</v>
@@ -1297,15 +1874,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="31" t="s">
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="40"/>
+      <c r="B23" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="2">
@@ -1317,22 +1892,20 @@
       <c r="F23" s="3">
         <v>13</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="43">
         <v>36</v>
       </c>
       <c r="I23" s="8">
         <v>3.2</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="31" t="s">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="40"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4">
@@ -1347,20 +1920,18 @@
       <c r="G24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="50">
         <v>42</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="31" t="s">
-        <v>16</v>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="40"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="7"/>
@@ -1369,17 +1940,15 @@
       <c r="H25" s="7">
         <v>3</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <v>54</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="31" t="s">
-        <v>10</v>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="40"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="41" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="5">
         <v>49</v>
@@ -1393,21 +1962,19 @@
         <v>19</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="30" t="s">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="40"/>
+      <c r="B27" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="50">
         <v>23</v>
       </c>
       <c r="F27" s="7">
@@ -1416,19 +1983,17 @@
       <c r="G27" s="7">
         <v>39</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="50">
         <v>14</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="11">
         <v>27.5</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="30" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="1">
@@ -1443,20 +2008,18 @@
       <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="52">
         <v>47</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="30" t="s">
-        <v>16</v>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1465,17 +2028,15 @@
       <c r="H29" s="1">
         <v>2</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="11">
         <v>57.9</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="30" t="s">
-        <v>10</v>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="40"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="6">
         <v>72</v>
@@ -1489,18 +2050,16 @@
         <v>37</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="30" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="40"/>
+      <c r="B31" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="43">
         <v>29</v>
       </c>
       <c r="E31" s="3">
@@ -1509,7 +2068,7 @@
       <c r="F31" s="3">
         <v>11</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="43" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="3">
@@ -1518,13 +2077,11 @@
       <c r="I31" s="8">
         <v>10</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="30" t="s">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="40"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7">
@@ -1539,35 +2096,31 @@
       <c r="G32" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="50">
         <v>38</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="30" t="s">
-        <v>16</v>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="40"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39" t="s">
+        <v>10</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
-      <c r="I33" s="10"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="30" t="s">
-        <v>10</v>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="44"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="D34" s="6">
         <v>51</v>
@@ -1581,115 +2134,105 @@
         <v>34</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F36" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="36"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="45"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="45"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="45"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="46"/>
+    </row>
+    <row r="39" spans="11:12">
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+    </row>
+    <row r="40" spans="11:12">
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+    </row>
+    <row r="41" spans="11:12">
+      <c r="K41" s="57"/>
+      <c r="L41" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B34"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.1607142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.1607142857143" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.3303571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.3303571428571" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.66071428571429" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1698,7 +2241,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -1707,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -1716,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>7</v>
@@ -1725,12 +2268,12 @@
         <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -1752,7 +2295,7 @@
       <c r="I3" s="2">
         <v>5</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="12">
         <v>20</v>
       </c>
       <c r="K3" s="8"/>
@@ -1764,8 +2307,8 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -1773,35 +2316,35 @@
         <v>0</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>25</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>21</v>
       </c>
       <c r="I4" s="4">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
-        <v>25</v>
-      </c>
-      <c r="K4" s="10"/>
+      <c r="J4" s="13">
+        <v>25</v>
+      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="1">
         <v>10</v>
       </c>
       <c r="M4" s="1">
         <v>14</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -1809,23 +2352,23 @@
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>25</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="13">
         <v>24</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="11">
         <v>1</v>
       </c>
       <c r="L5" s="1">
@@ -1834,12 +2377,12 @@
       <c r="M5" s="1">
         <v>22</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -1847,23 +2390,23 @@
         <v>0</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>25</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>24</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="13">
         <v>23</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="11">
         <v>2</v>
       </c>
       <c r="L6" s="1">
@@ -1872,14 +2415,14 @@
       <c r="M6" s="1">
         <v>23</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -1898,7 +2441,7 @@
       <c r="I7" s="5">
         <v>5</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="14">
         <v>92</v>
       </c>
       <c r="K7" s="9">
@@ -1914,9 +2457,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
-        <v>24</v>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -1935,23 +2478,23 @@
       <c r="H8" s="8">
         <v>7</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="15">
         <v>1</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="16">
         <v>24</v>
       </c>
-      <c r="K8" s="16"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="3">
         <v>24</v>
       </c>
       <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="N8" s="27"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -1959,31 +2502,31 @@
         <v>1</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>24</v>
       </c>
       <c r="F9" s="4">
         <v>8</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <v>17</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18">
-        <v>25</v>
-      </c>
-      <c r="K9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19">
+        <v>25</v>
+      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="1">
         <v>10</v>
       </c>
       <c r="M9" s="1">
         <v>15</v>
       </c>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -1991,31 +2534,31 @@
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>25</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18">
-        <v>25</v>
-      </c>
-      <c r="K10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19">
+        <v>25</v>
+      </c>
+      <c r="K10" s="20"/>
       <c r="L10" s="1">
         <v>3</v>
       </c>
       <c r="M10" s="1">
         <v>22</v>
       </c>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
+      <c r="N10" s="26"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -2023,33 +2566,33 @@
         <v>0</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>25</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="10">
-        <v>25</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18">
-        <v>25</v>
-      </c>
-      <c r="K11" s="19"/>
+      <c r="H11" s="11">
+        <v>25</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19">
+        <v>25</v>
+      </c>
+      <c r="K11" s="20"/>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
         <v>25</v>
       </c>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -2065,13 +2608,13 @@
       <c r="H12" s="9">
         <v>71</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="21">
         <v>1</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="22">
         <v>99</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="6">
         <v>37</v>
       </c>
@@ -2082,9 +2625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
-        <v>25</v>
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2106,7 +2649,7 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12">
         <v>23</v>
       </c>
       <c r="K13" s="8"/>
@@ -2116,10 +2659,10 @@
       <c r="M13" s="3">
         <v>3</v>
       </c>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
@@ -2127,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>21</v>
       </c>
       <c r="F14" s="4">
@@ -2136,48 +2679,48 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="11">
         <v>18</v>
       </c>
       <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="J14" s="23">
-        <v>25</v>
-      </c>
-      <c r="K14" s="10"/>
+      <c r="J14" s="24">
+        <v>25</v>
+      </c>
+      <c r="K14" s="11"/>
       <c r="L14" s="7">
         <v>15</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>25</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="10">
+      <c r="H15" s="11">
         <v>24</v>
       </c>
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="24">
         <v>24</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="11">
         <v>1</v>
       </c>
       <c r="L15" s="7">
@@ -2186,30 +2729,30 @@
       <c r="M15" s="7">
         <v>22</v>
       </c>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
       <c r="B16" s="7">
         <v>5</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>25</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="10">
+      <c r="H16" s="11">
         <v>25</v>
       </c>
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="24">
         <v>21</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="11">
         <v>4</v>
       </c>
       <c r="L16" s="7">
@@ -2218,18 +2761,18 @@
       <c r="M16" s="7">
         <v>24</v>
       </c>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4">
         <v>18</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>82</v>
       </c>
       <c r="F17" s="4">
@@ -2238,16 +2781,16 @@
       <c r="G17" s="7">
         <v>1</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="11">
         <v>69</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="24">
         <v>93</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="11">
         <v>5</v>
       </c>
       <c r="L17" s="7">
@@ -2256,43 +2799,43 @@
       <c r="M17" s="7">
         <v>59</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="39" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="8"/>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="39"/>
-      <c r="N18" s="41"/>
-      <c r="O18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
@@ -2301,7 +2844,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>7</v>
@@ -2310,7 +2853,7 @@
         <v>9</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>7</v>
@@ -2319,7 +2862,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>7</v>
@@ -2328,15 +2871,15 @@
         <v>9</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="43" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -2345,12 +2888,12 @@
         <v>25</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4">
         <v>25</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="2">
         <v>25</v>
       </c>
@@ -2360,11 +2903,11 @@
         <v>25</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -2372,28 +2915,28 @@
         <v>25</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="4">
         <v>25</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="10">
+      <c r="K21" s="11">
         <v>23</v>
       </c>
       <c r="L21" s="1">
         <v>25</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -2401,30 +2944,30 @@
         <v>23</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>2</v>
       </c>
       <c r="F22" s="4">
         <v>25</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="10">
+      <c r="K22" s="11">
         <v>24</v>
       </c>
       <c r="L22" s="1">
         <v>25</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4"/>
       <c r="B23" s="1">
         <v>5</v>
       </c>
@@ -2432,32 +2975,32 @@
         <v>9</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <v>16</v>
       </c>
       <c r="F23" s="4">
         <v>25</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="10"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="10">
+      <c r="K23" s="11">
         <v>25</v>
       </c>
       <c r="L23" s="1">
         <v>25</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5">
         <v>82</v>
@@ -2489,9 +3032,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
-        <v>29</v>
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -2511,7 +3054,7 @@
       <c r="I25" s="2">
         <v>3</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="12">
         <v>22</v>
       </c>
       <c r="K25" s="8"/>
@@ -2519,11 +3062,11 @@
         <v>25</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="27"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -2531,34 +3074,34 @@
         <v>23</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="10">
+      <c r="E26" s="11">
         <v>2</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="10">
+      <c r="H26" s="11">
         <v>24</v>
       </c>
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="13">
         <v>24</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="11">
         <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>25</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="28"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>4</v>
       </c>
@@ -2566,34 +3109,34 @@
         <v>9</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="10">
+      <c r="E27" s="11">
         <v>16</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="10">
+      <c r="H27" s="11">
         <v>24</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="13">
         <v>22</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="11">
         <v>3</v>
       </c>
       <c r="L27" s="1">
         <v>25</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="28"/>
+      <c r="N27" s="26"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4"/>
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -2601,36 +3144,36 @@
         <v>3</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="10">
+      <c r="E28" s="11">
         <v>22</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="10">
+      <c r="H28" s="11">
         <v>25</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="13">
         <v>24</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="11">
         <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>25</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="5">
         <v>60</v>
@@ -2649,7 +3192,7 @@
       <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="14">
         <v>92</v>
       </c>
       <c r="K29" s="9">
@@ -2664,9 +3207,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
-        <v>30</v>
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -2694,11 +3237,11 @@
         <v>25</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="27"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4"/>
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -2706,30 +3249,30 @@
         <v>25</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="4">
         <v>4</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="10">
+      <c r="H31" s="11">
         <v>21</v>
       </c>
       <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="10">
+      <c r="K31" s="11">
         <v>24</v>
       </c>
       <c r="L31" s="7">
         <v>25</v>
       </c>
       <c r="M31" s="7"/>
-      <c r="N31" s="28"/>
+      <c r="N31" s="26"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -2737,32 +3280,32 @@
         <v>16</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="10">
+      <c r="E32" s="11">
         <v>9</v>
       </c>
       <c r="F32" s="4">
         <v>4</v>
       </c>
       <c r="G32" s="7"/>
-      <c r="H32" s="10">
+      <c r="H32" s="11">
         <v>21</v>
       </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="10">
+      <c r="K32" s="11">
         <v>25</v>
       </c>
       <c r="L32" s="7">
         <v>25</v>
       </c>
       <c r="M32" s="7"/>
-      <c r="N32" s="28"/>
+      <c r="N32" s="26"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4"/>
       <c r="B33" s="7">
         <v>5</v>
       </c>
@@ -2770,34 +3313,34 @@
         <v>2</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="10">
+      <c r="E33" s="11">
         <v>23</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
-      <c r="H33" s="10">
+      <c r="H33" s="11">
         <v>25</v>
       </c>
       <c r="I33" s="4">
         <v>0</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33" s="10">
+      <c r="K33" s="11">
         <v>25</v>
       </c>
       <c r="L33" s="7">
         <v>25</v>
       </c>
       <c r="M33" s="7"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="26"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="5">
         <v>68</v>
@@ -2829,31 +3372,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="I36" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="A37:E37"/>
@@ -2863,15 +3414,8 @@
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12460"/>
+    <workbookView windowWidth="20260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Z3</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>MySolver</t>
+  </si>
+  <si>
+    <t>Merge</t>
   </si>
   <si>
     <t>number</t>
@@ -121,11 +124,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,13 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -166,14 +162,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,6 +180,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -202,14 +205,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -224,11 +227,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,31 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,9 +281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,13 +304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,31 +322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,19 +346,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,19 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,55 +478,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +656,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +680,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -703,140 +740,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,56 +841,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,15 +975,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1006,68 +996,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1388,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1403,7 +1363,7 @@
     <col min="11" max="11" width="17.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9">
+    <row r="1" spans="3:18">
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1417,43 +1377,78 @@
         <v>2</v>
       </c>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="3:9">
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="3:18">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="28" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="28" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3">
         <v>26</v>
@@ -1467,24 +1462,48 @@
       <c r="I3" s="8">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
+      <c r="K3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="3">
+        <v>62</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3">
+        <v>40</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>72</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="4"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
         <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7">
         <v>38</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="7">
         <v>65</v>
@@ -1492,27 +1511,63 @@
       <c r="I4" s="11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="30"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="48">
+      <c r="M4" s="7">
+        <v>68</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7">
+        <v>68</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>111</v>
+      </c>
+      <c r="R4" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="53"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="30"/>
-      <c r="B6" s="33"/>
+      <c r="I5" s="26"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="7">
+        <v>17</v>
+      </c>
+      <c r="R5" s="45">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6">
         <v>32</v>
@@ -1526,26 +1581,42 @@
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="M6" s="6">
+        <v>70</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>92</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4"/>
+      <c r="B7" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3">
         <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
         <v>16</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>8</v>
+      <c r="G7" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="H7" s="3">
         <v>34</v>
@@ -1553,24 +1624,48 @@
       <c r="I7" s="8">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
+      <c r="K7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3">
+        <v>58</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>29</v>
+      </c>
+      <c r="P7" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>70</v>
+      </c>
+      <c r="R7" s="8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
         <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7">
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H8" s="7">
         <v>55</v>
@@ -1578,29 +1673,65 @@
       <c r="I8" s="11">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:9">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32" t="s">
+      <c r="K8" s="29"/>
+      <c r="L8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48">
+      <c r="M8" s="7">
+        <v>42</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="7">
+        <v>44</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>97</v>
+      </c>
+      <c r="R8" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:18">
+      <c r="A9" s="4"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="54">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="43">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="7">
+        <v>14</v>
+      </c>
+      <c r="R9" s="43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="4"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6">
         <v>51</v>
@@ -1614,14 +1745,30 @@
         <v>0</v>
       </c>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="30"/>
-      <c r="B11" s="34" t="s">
-        <v>13</v>
+      <c r="K10" s="31"/>
+      <c r="L10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="6">
+        <v>100</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>127</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6">
+        <v>19</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="4"/>
+      <c r="B11" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1635,18 +1782,42 @@
         <v>0</v>
       </c>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="30"/>
-      <c r="B12" s="35"/>
+      <c r="K11" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>23</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="40">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>14</v>
+      </c>
+      <c r="R11" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="4"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
         <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7">
         <v>41</v>
@@ -1660,29 +1831,65 @@
       <c r="I12" s="11">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="30"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="32" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48">
+      <c r="M12" s="7">
+        <v>63</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="7">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>124</v>
+      </c>
+      <c r="R12" s="11">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="7">
         <v>23</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="11">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="30"/>
-      <c r="B14" s="36"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="7">
+        <v>25</v>
+      </c>
+      <c r="R13" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="4"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6">
         <v>62</v>
@@ -1696,14 +1903,30 @@
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29" t="s">
-        <v>14</v>
+      <c r="K14" s="34"/>
+      <c r="L14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="6">
+        <v>134</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>133</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6">
+        <v>37</v>
+      </c>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4"/>
+      <c r="B15" s="28" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3">
         <v>20</v>
@@ -1723,18 +1946,42 @@
       <c r="I15" s="8">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31"/>
+      <c r="K15" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>49</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="O15" s="3">
+        <v>26</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>58</v>
+      </c>
+      <c r="R15" s="8">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="4"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
         <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" s="7">
         <v>23</v>
@@ -1746,31 +1993,67 @@
         <v>44</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48">
+      <c r="M16" s="7">
+        <v>42</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="7">
+        <v>43</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>82</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="4"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="11">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="6">
         <v>58</v>
@@ -1784,66 +2067,82 @@
         <v>25</v>
       </c>
       <c r="I18" s="9"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="6">
+        <v>109</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
+        <v>131</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6">
+        <v>59</v>
+      </c>
+      <c r="R18" s="9"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>6</v>
+      <c r="A19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="43" t="s">
-        <v>8</v>
+      <c r="E19" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="F19" s="3">
         <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="43">
+        <v>9</v>
+      </c>
+      <c r="H19" s="38">
         <v>37</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="40"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="41" t="s">
-        <v>9</v>
+      <c r="A20" s="29"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="4">
         <v>31</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="7">
         <v>30</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="50">
+        <v>9</v>
+      </c>
+      <c r="H20" s="41">
         <v>46</v>
       </c>
-      <c r="I20" s="56" t="s">
-        <v>8</v>
+      <c r="I20" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="40"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="41" t="s">
-        <v>10</v>
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="7"/>
@@ -1857,10 +2156,10 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="40"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="41" t="s">
-        <v>11</v>
+      <c r="A22" s="29"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="5">
         <v>38</v>
@@ -1870,18 +2169,18 @@
         <v>56</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="51">
+      <c r="H22" s="42">
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="40"/>
-      <c r="B23" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>7</v>
+      <c r="A23" s="29"/>
+      <c r="B23" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="D23" s="2">
         <v>31</v>
@@ -1892,10 +2191,10 @@
       <c r="F23" s="3">
         <v>13</v>
       </c>
-      <c r="G23" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="43">
+      <c r="G23" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="38">
         <v>36</v>
       </c>
       <c r="I23" s="8">
@@ -1903,35 +2202,35 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="41" t="s">
-        <v>9</v>
+      <c r="A24" s="29"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="7">
         <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="50">
+        <v>9</v>
+      </c>
+      <c r="H24" s="41">
         <v>42</v>
       </c>
-      <c r="I24" s="56" t="s">
-        <v>8</v>
+      <c r="I24" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="41" t="s">
-        <v>10</v>
+      <c r="A25" s="29"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="7"/>
@@ -1945,10 +2244,10 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="41" t="s">
-        <v>11</v>
+      <c r="A26" s="29"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="5">
         <v>49</v>
@@ -1958,23 +2257,23 @@
         <v>67</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="51">
+      <c r="H26" s="42">
         <v>19</v>
       </c>
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>7</v>
+      <c r="A27" s="29"/>
+      <c r="B27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
       </c>
-      <c r="E27" s="50">
+      <c r="E27" s="41">
         <v>23</v>
       </c>
       <c r="F27" s="7">
@@ -1983,7 +2282,7 @@
       <c r="G27" s="7">
         <v>39</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="41">
         <v>14</v>
       </c>
       <c r="I27" s="11">
@@ -1991,35 +2290,35 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="40"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="1">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F28" s="1">
         <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="52">
+        <v>9</v>
+      </c>
+      <c r="H28" s="10">
         <v>47</v>
       </c>
-      <c r="I28" s="56" t="s">
-        <v>8</v>
+      <c r="I28" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="40"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39" t="s">
-        <v>10</v>
+      <c r="A29" s="29"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2033,10 +2332,10 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="40"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39" t="s">
-        <v>11</v>
+      <c r="A30" s="29"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="D30" s="6">
         <v>72</v>
@@ -2046,20 +2345,20 @@
         <v>74</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="51">
+      <c r="H30" s="42">
         <v>37</v>
       </c>
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="40"/>
-      <c r="B31" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="43">
+      <c r="A31" s="29"/>
+      <c r="B31" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="38">
         <v>29</v>
       </c>
       <c r="E31" s="3">
@@ -2068,8 +2367,8 @@
       <c r="F31" s="3">
         <v>11</v>
       </c>
-      <c r="G31" s="43" t="s">
-        <v>8</v>
+      <c r="G31" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="H31" s="3">
         <v>28</v>
@@ -2079,35 +2378,35 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="40"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39" t="s">
-        <v>9</v>
+      <c r="A32" s="29"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="D32" s="7">
         <v>20</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32" s="7">
         <v>20</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="50">
+        <v>9</v>
+      </c>
+      <c r="H32" s="41">
         <v>38</v>
       </c>
-      <c r="I32" s="56" t="s">
-        <v>8</v>
+      <c r="I32" s="44" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="40"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39" t="s">
-        <v>10</v>
+      <c r="A33" s="29"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35" t="s">
+        <v>11</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2117,10 +2416,10 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39" t="s">
-        <v>11</v>
+      <c r="A34" s="31"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="6">
         <v>51</v>
@@ -2130,40 +2429,43 @@
         <v>69</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="51">
+      <c r="H34" s="42">
         <v>34</v>
       </c>
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="39"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="39"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="39"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="46"/>
+      <c r="A38" s="39"/>
     </row>
     <row r="39" spans="11:12">
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="40" spans="11:12">
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" spans="11:12">
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
     <mergeCell ref="B3:B6"/>
@@ -2174,6 +2476,10 @@
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B34"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2217,7 +2523,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2229,51 +2535,51 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -2422,7 +2728,7 @@
     <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -2459,7 +2765,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
@@ -2592,7 +2898,7 @@
     <row r="12" spans="1:14">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
@@ -2627,7 +2933,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3">
         <v>2</v>
@@ -2766,7 +3072,7 @@
     <row r="17" spans="1:14">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4">
         <v>18</v>
@@ -2817,7 +3123,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="8"/>
       <c r="I18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2827,59 +3133,59 @@
       <c r="M18" s="3"/>
       <c r="N18" s="8"/>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7">
         <v>2</v>
@@ -3000,7 +3306,7 @@
     <row r="24" spans="1:15">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5">
         <v>82</v>
@@ -3034,7 +3340,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -3173,7 +3479,7 @@
     <row r="29" spans="1:15">
       <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" s="5">
         <v>60</v>
@@ -3209,7 +3515,7 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -3340,7 +3646,7 @@
     <row r="34" spans="1:15">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5">
         <v>68</v>
@@ -3374,21 +3680,21 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Document/research/Researchlogs/data/string/parseInt/PAexp-Solver/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA92FC-6FBB-7E4C-B7AD-A5148A15A722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20260" windowHeight="12460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="33">
   <si>
     <t>Z3</t>
   </si>
@@ -120,376 +126,49 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -642,255 +321,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,15 +412,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,92 +478,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1342,59 +774,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:R18"/>
+    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.16071428571429" style="27"/>
-    <col min="11" max="11" width="17.0982142857143" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="27"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="39"/>
       <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="3:18">
+      <c r="R1" s="39"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1434,11 +866,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1462,7 +894,7 @@
       <c r="I3" s="8">
         <v>0.1</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -1471,7 +903,7 @@
       <c r="M3" s="3">
         <v>62</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="54" t="s">
         <v>9</v>
       </c>
       <c r="O3" s="3">
@@ -1480,16 +912,16 @@
       <c r="P3" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="54">
         <v>72</v>
       </c>
       <c r="R3" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="4"/>
-      <c r="B4" s="29"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1511,14 +943,14 @@
       <c r="I4" s="11">
         <v>0.4</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="44"/>
       <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="55" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="7">
@@ -1527,45 +959,45 @@
       <c r="P4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="55">
         <v>111</v>
       </c>
       <c r="R4" s="11">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="4"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="39"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="39"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="7">
         <v>17</v>
       </c>
-      <c r="R5" s="45">
-        <v>9.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="4"/>
-      <c r="B6" s="31"/>
+      <c r="R5" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1581,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="K6" s="31"/>
+      <c r="K6" s="45"/>
       <c r="L6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1598,9 +1030,9 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="4"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1615,7 +1047,7 @@
       <c r="F7" s="3">
         <v>16</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -1624,7 +1056,7 @@
       <c r="I7" s="8">
         <v>0.8</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="43" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -1639,19 +1071,19 @@
       <c r="O7" s="3">
         <v>29</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="56">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="54">
         <v>70</v>
       </c>
       <c r="R7" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4"/>
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1673,7 +1105,7 @@
       <c r="I8" s="11">
         <v>3.2</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1686,50 +1118,50 @@
       <c r="O8" s="7">
         <v>44</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="P8" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="55">
         <v>97</v>
       </c>
       <c r="R8" s="11">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:18">
-      <c r="A9" s="4"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30" t="s">
+    <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="39"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="7">
         <v>11</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="36">
         <v>8</v>
       </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30" t="s">
+      <c r="K9" s="44"/>
+      <c r="L9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="39"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="7">
         <v>14</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="36">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4"/>
-      <c r="B10" s="31"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1745,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="K10" s="31"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1762,9 +1194,9 @@
       </c>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4"/>
-      <c r="B11" s="32" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1782,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="46" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1797,19 +1229,19 @@
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="33">
         <v>39</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="54">
         <v>14</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="57">
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="4"/>
-      <c r="B12" s="33"/>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
@@ -1831,14 +1263,14 @@
       <c r="I12" s="11">
         <v>3.4</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="55" t="s">
         <v>9</v>
       </c>
       <c r="O12" s="7">
@@ -1847,37 +1279,37 @@
       <c r="P12" s="7">
         <v>0.2</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="55">
         <v>124</v>
       </c>
       <c r="R12" s="11">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="30" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="39"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="7">
         <v>23</v>
       </c>
       <c r="I13" s="11">
         <v>13.4</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="30" t="s">
+      <c r="K13" s="47"/>
+      <c r="L13" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="39"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="7">
         <v>25</v>
       </c>
@@ -1885,9 +1317,9 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4"/>
-      <c r="B14" s="34"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="K14" s="34"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1920,9 +1352,9 @@
       </c>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="4"/>
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
+      <c r="B15" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1938,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="H15" s="3">
         <v>30</v>
@@ -1946,7 +1378,7 @@
       <c r="I15" s="8">
         <v>16</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="43" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1955,7 +1387,7 @@
       <c r="M15" s="3">
         <v>49</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="54">
         <v>1.2</v>
       </c>
       <c r="O15" s="3">
@@ -1964,16 +1396,16 @@
       <c r="P15" s="3">
         <v>4.8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="54">
         <v>58</v>
       </c>
       <c r="R15" s="8">
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="4"/>
-      <c r="B16" s="29"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="7" t="s">
         <v>10</v>
       </c>
@@ -1995,14 +1427,14 @@
       <c r="I16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="55" t="s">
         <v>9</v>
       </c>
       <c r="O16" s="7">
@@ -2011,37 +1443,37 @@
       <c r="P16" s="7">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="55">
         <v>82</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="4"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30" t="s">
+      <c r="R16" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="11">
         <v>39</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30" t="s">
+      <c r="K17" s="44"/>
+      <c r="L17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="39"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="7">
         <v>1</v>
       </c>
@@ -2049,9 +1481,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="5"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +1499,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="K18" s="31"/>
+      <c r="K18" s="45"/>
       <c r="L18" s="6" t="s">
         <v>12</v>
       </c>
@@ -2084,11 +1516,11 @@
       </c>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2097,7 +1529,7 @@
       <c r="D19" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="31" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="3">
@@ -2106,17 +1538,17 @@
       <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="31">
         <v>37</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="29"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="44"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4">
@@ -2131,17 +1563,17 @@
       <c r="G20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="34">
         <v>46</v>
       </c>
-      <c r="I20" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="29"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36" t="s">
+      <c r="I20" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="4"/>
@@ -2152,13 +1584,13 @@
         <v>17</v>
       </c>
       <c r="I21" s="11">
-        <v>9.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="36" t="s">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="44"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="5">
@@ -2169,17 +1601,17 @@
         <v>56</v>
       </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="42">
+      <c r="H22" s="35">
         <v>0</v>
       </c>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="29"/>
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
+      <c r="B23" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2">
@@ -2191,20 +1623,20 @@
       <c r="F23" s="3">
         <v>13</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="38">
+      <c r="G23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="31">
         <v>36</v>
       </c>
       <c r="I23" s="8">
         <v>3.2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="29"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="44"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="4">
@@ -2219,17 +1651,17 @@
       <c r="G24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="34">
         <v>42</v>
       </c>
-      <c r="I24" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="29"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36" t="s">
+      <c r="I24" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="44"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="4"/>
@@ -2243,10 +1675,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="29"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="44"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="5">
@@ -2257,23 +1689,23 @@
         <v>67</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="42">
+      <c r="H26" s="35">
         <v>19</v>
       </c>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="29"/>
-      <c r="B27" s="37" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="7">
         <v>3</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="34">
         <v>23</v>
       </c>
       <c r="F27" s="7">
@@ -2282,17 +1714,17 @@
       <c r="G27" s="7">
         <v>39</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="34">
         <v>14</v>
       </c>
       <c r="I27" s="11">
         <v>27.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="29"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="44"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1">
@@ -2310,14 +1742,14 @@
       <c r="H28" s="10">
         <v>47</v>
       </c>
-      <c r="I28" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="29"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35" t="s">
+      <c r="I28" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1"/>
@@ -2331,10 +1763,10 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="29"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35" t="s">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="44"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="6">
@@ -2345,20 +1777,20 @@
         <v>74</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="42">
+      <c r="H30" s="35">
         <v>37</v>
       </c>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="29"/>
-      <c r="B31" s="35" t="s">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="44"/>
+      <c r="B31" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="31">
         <v>29</v>
       </c>
       <c r="E31" s="3">
@@ -2367,7 +1799,7 @@
       <c r="F31" s="3">
         <v>11</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="31" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="3">
@@ -2377,10 +1809,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="29"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="44"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="7">
@@ -2395,17 +1827,17 @@
       <c r="G32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="34">
         <v>38</v>
       </c>
-      <c r="I32" s="44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="29"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35" t="s">
+      <c r="I32" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="44"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="29" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="7"/>
@@ -2415,10 +1847,10 @@
       <c r="H33" s="7"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="31"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="45"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="6">
@@ -2429,42 +1861,37 @@
         <v>69</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="42">
+      <c r="H34" s="35">
         <v>34</v>
       </c>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="39"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="39"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="39"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="39"/>
-    </row>
-    <row r="39" spans="11:12">
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="11:12">
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="11:12">
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="A19:A34"/>
@@ -2480,60 +1907,63 @@
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="K15:K18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1607142857143" customWidth="1"/>
-    <col min="2" max="2" width="14.1607142857143" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="10.3303571428571" customWidth="1"/>
-    <col min="7" max="7" width="11.3303571428571" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="8.66071428571429" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2577,8 +2007,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3">
@@ -2613,8 +2043,8 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2649,8 +2079,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -2687,8 +2117,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2725,8 +2155,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2763,8 +2193,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -2799,8 +2229,8 @@
       </c>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -2831,8 +2261,8 @@
       </c>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -2863,8 +2293,8 @@
       </c>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -2895,8 +2325,8 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -2931,8 +2361,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3">
@@ -2967,8 +2397,8 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
@@ -3003,8 +2433,8 @@
       </c>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="41"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
@@ -3037,8 +2467,8 @@
       </c>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
       <c r="B16" s="7">
         <v>5</v>
       </c>
@@ -3069,8 +2499,8 @@
       </c>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
@@ -3109,34 +2539,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2" t="s">
+      <c r="C18" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="3" t="s">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="2" t="s">
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="8"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="52"/>
       <c r="O18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -3183,8 +2613,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
@@ -3212,8 +2642,8 @@
       <c r="N20" s="11"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -3241,8 +2671,8 @@
       <c r="N21" s="11"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -3272,8 +2702,8 @@
       <c r="N22" s="11"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
       <c r="B23" s="1">
         <v>5</v>
       </c>
@@ -3303,8 +2733,8 @@
       <c r="N23" s="11"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
       <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
@@ -3338,8 +2768,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3">
@@ -3371,8 +2801,8 @@
       <c r="N25" s="25"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="41"/>
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -3406,8 +2836,8 @@
       <c r="N26" s="26"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
       <c r="B27" s="1">
         <v>4</v>
       </c>
@@ -3441,8 +2871,8 @@
       <c r="N27" s="26"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="41"/>
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -3476,8 +2906,8 @@
       <c r="N28" s="11"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
@@ -3513,8 +2943,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3">
@@ -3546,8 +2976,8 @@
       <c r="N30" s="25"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -3577,8 +3007,8 @@
       <c r="N31" s="26"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -3610,8 +3040,8 @@
       <c r="N32" s="26"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
       <c r="B33" s="7">
         <v>5</v>
       </c>
@@ -3643,8 +3073,8 @@
       <c r="N33" s="26"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="42"/>
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
@@ -3678,39 +3108,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="I36" s="1" t="s">
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="I36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="A37:E37"/>
@@ -3720,8 +3142,15 @@
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Document/research/Researchlogs/data/string/parseInt/PAexp-Solver/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCA92FC-6FBB-7E4C-B7AD-A5148A15A722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20260" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Z3</t>
   </si>
@@ -39,9 +33,6 @@
   </si>
   <si>
     <t>avg</t>
-  </si>
-  <si>
-    <t>UNBOUNDED</t>
   </si>
   <si>
     <t>2-3-3-4</t>
@@ -65,11 +56,14 @@
     <t>3-4-4-5</t>
   </si>
   <si>
+    <t>4-5-5-6</t>
+  </si>
+  <si>
     <t>3-4-4-5 
 with equality</t>
   </si>
   <si>
-    <t>4-5-5-6</t>
+    <t>UNBOUNDED</t>
   </si>
   <si>
     <t>BOUNDED</t>
@@ -126,49 +120,376 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -321,13 +642,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,111 +975,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -774,76 +1345,76 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="27"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.16071428571429" style="27"/>
+    <col min="11" max="11" width="17.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C1" s="1"/>
-      <c r="D1" s="39" t="s">
+    <row r="1" spans="2:18">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="39"/>
+      <c r="H1" s="1"/>
       <c r="K1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1"/>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="39"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C2" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="1"/>
@@ -866,45 +1437,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
+      <c r="C3" s="3">
+        <v>22</v>
       </c>
       <c r="D3" s="3">
-        <v>31</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>3.6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
       </c>
       <c r="F3" s="3">
-        <v>26</v>
+        <v>4.4</v>
       </c>
       <c r="G3" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>35</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M3" s="3">
         <v>62</v>
       </c>
-      <c r="N3" s="54" t="s">
-        <v>9</v>
+      <c r="N3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O3" s="3">
         <v>40</v>
@@ -912,110 +1480,109 @@
       <c r="P3" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="54">
+      <c r="Q3" s="3">
         <v>72</v>
       </c>
       <c r="R3" s="8">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7">
-        <v>37</v>
-      </c>
-      <c r="E4" s="7" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="29"/>
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7">
-        <v>38</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="7">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7">
+        <v>29</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7">
+        <v>49</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="H4" s="7">
-        <v>65</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
       </c>
-      <c r="N4" s="55" t="s">
-        <v>9</v>
+      <c r="N4" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="O4" s="7">
         <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="55">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="7">
         <v>111</v>
       </c>
       <c r="R4" s="11">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="32"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="7">
+        <v>24</v>
+      </c>
+      <c r="H5" s="34">
+        <v>9.4</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="7">
         <v>17</v>
       </c>
-      <c r="R5" s="38">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>36</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
+      <c r="R5" s="34">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="32"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>61</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="K6" s="45"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="32"/>
       <c r="L6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="6">
         <v>70</v>
@@ -1030,37 +1597,36 @@
       </c>
       <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:18">
+      <c r="A7" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="3">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3">
-        <v>16</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="3">
-        <v>34</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>13</v>
+        <v>8.6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8.54</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="3">
         <v>58</v>
@@ -1071,87 +1637,83 @@
       <c r="O7" s="3">
         <v>29</v>
       </c>
-      <c r="P7" s="56">
+      <c r="P7" s="35">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="54">
+      <c r="Q7" s="3">
         <v>70</v>
       </c>
       <c r="R7" s="8">
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
+    <row r="8" spans="1:18">
+      <c r="A8" s="29"/>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="H8" s="7">
-        <v>55</v>
-      </c>
-      <c r="I8" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O8" s="7">
         <v>44</v>
       </c>
-      <c r="P8" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="55">
+      <c r="P8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="7">
         <v>97</v>
       </c>
       <c r="R8" s="11">
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="7">
-        <v>11</v>
-      </c>
-      <c r="I9" s="36">
-        <v>8</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="32"/>
+    <row r="9" ht="17" customHeight="1" spans="1:18">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="7">
         <v>14</v>
       </c>
@@ -1159,27 +1721,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
-        <v>60</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="K10" s="45"/>
+    <row r="10" spans="1:18">
+      <c r="A10" s="32"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>71</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>32</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="6">
         <v>100</v>
@@ -1194,84 +1755,88 @@
       </c>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="46" t="s">
+    <row r="11" spans="1:18">
+      <c r="A11" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="K11" s="46" t="s">
-        <v>14</v>
-      </c>
       <c r="L11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="35">
         <v>23</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="35">
         <v>39</v>
       </c>
-      <c r="Q11" s="54">
+      <c r="Q11" s="3">
         <v>14</v>
       </c>
-      <c r="R11" s="57">
+      <c r="R11" s="8">
         <v>7.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
+    <row r="12" spans="1:18">
+      <c r="A12" s="29"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7">
-        <v>41</v>
+      <c r="C12" s="7">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="G12" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="7">
-        <v>77</v>
-      </c>
-      <c r="I12" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="K12" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="38"/>
       <c r="L12" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
       </c>
-      <c r="N12" s="55" t="s">
-        <v>9</v>
+      <c r="N12" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="O12" s="7">
         <v>66</v>
@@ -1279,37 +1844,34 @@
       <c r="P12" s="7">
         <v>0.2</v>
       </c>
-      <c r="Q12" s="55">
+      <c r="Q12" s="7">
         <v>124</v>
       </c>
       <c r="R12" s="11">
         <v>3.4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="11">
-        <v>13.4</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="32"/>
+    <row r="13" spans="1:18">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="7">
         <v>25</v>
       </c>
@@ -1317,27 +1879,26 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6">
-        <v>62</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6">
-        <v>59</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="K14" s="48"/>
+    <row r="14" spans="1:18">
+      <c r="A14" s="32"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>79</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>47</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="K14" s="39"/>
       <c r="L14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="6">
         <v>134</v>
@@ -1352,42 +1913,17 @@
       </c>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="H15" s="3">
-        <v>30</v>
-      </c>
-      <c r="I15" s="8">
-        <v>16</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>15</v>
+    <row r="15" spans="11:18">
+      <c r="K15" s="28" t="s">
+        <v>13</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M15" s="3">
         <v>49</v>
       </c>
-      <c r="N15" s="54">
+      <c r="N15" s="3">
         <v>1.2</v>
       </c>
       <c r="O15" s="3">
@@ -1396,46 +1932,23 @@
       <c r="P15" s="3">
         <v>4.8</v>
       </c>
-      <c r="Q15" s="54">
+      <c r="Q15" s="3">
         <v>58</v>
       </c>
       <c r="R15" s="8">
         <v>13.4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>22</v>
-      </c>
-      <c r="E16" s="7" t="s">
+    <row r="16" spans="11:18">
+      <c r="K16" s="29"/>
+      <c r="L16" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="F16" s="7">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>44</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="44"/>
-      <c r="L16" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
       </c>
-      <c r="N16" s="55" t="s">
-        <v>9</v>
+      <c r="N16" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="O16" s="7">
         <v>43</v>
@@ -1443,65 +1956,33 @@
       <c r="P16" s="7">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="7">
         <v>82</v>
       </c>
-      <c r="R16" s="58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
-        <v>39</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="32"/>
+      <c r="R16" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18">
+      <c r="K17" s="29"/>
+      <c r="L17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="33"/>
       <c r="Q17" s="7">
         <v>1</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="36">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>62</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <v>25</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="K18" s="45"/>
+    <row r="18" spans="11:18">
+      <c r="K18" s="32"/>
       <c r="L18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18" s="6">
         <v>109</v>
@@ -1516,454 +1997,824 @@
       </c>
       <c r="R18" s="9"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="43" t="s">
+    <row r="21" spans="13:19">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="13:19">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="11:19">
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
+        <v>31</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>35</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="11:19">
+      <c r="K24" s="4"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>37</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="7">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="7">
+        <v>65</v>
+      </c>
+      <c r="S24" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="11:19">
+      <c r="K25" s="4"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="7">
+        <v>0</v>
+      </c>
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="11:19">
+      <c r="K26" s="4"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="6">
+        <v>32</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9"/>
+    </row>
+    <row r="27" spans="11:19">
+      <c r="K27" s="4"/>
+      <c r="L27" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3">
+        <v>27</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="Q27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
+        <v>34</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="11:19">
+      <c r="K28" s="4"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="7">
+        <v>22</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="7">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="7">
+        <v>55</v>
+      </c>
+      <c r="S28" s="11">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="29" spans="11:19">
+      <c r="K29" s="4"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="7">
+        <v>11</v>
+      </c>
+      <c r="S29" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="11:19">
+      <c r="K30" s="4"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="6">
+        <v>51</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="11:19">
+      <c r="K31" s="4"/>
+      <c r="L31" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8"/>
+    </row>
+    <row r="32" spans="11:19">
+      <c r="K32" s="4"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N32" s="7">
+        <v>38</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="7">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="R32" s="7">
+        <v>77</v>
+      </c>
+      <c r="S32" s="11">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="33" spans="11:19">
+      <c r="K33" s="4"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="7">
+        <v>23</v>
+      </c>
+      <c r="S33" s="11">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="34" spans="11:19">
+      <c r="K34" s="4"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="6">
+        <v>62</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="33"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="3">
+        <v>20</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P35" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="R35" s="3">
+        <v>30</v>
+      </c>
+      <c r="S35" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="33"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="7">
+        <v>22</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="7">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R36" s="7">
+        <v>44</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="33"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="7">
+        <v>1</v>
+      </c>
+      <c r="S37" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="33"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="6">
+        <v>58</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6">
+        <v>62</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6">
+        <v>25</v>
+      </c>
+      <c r="S38" s="9"/>
+    </row>
+    <row r="39" spans="11:19">
+      <c r="K39" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="2">
         <v>31</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="O39" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" s="3">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R39" s="42">
+        <v>37</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="11:19">
+      <c r="K40" s="29"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="3">
+      <c r="N40" s="4">
+        <v>31</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40" s="44">
+        <v>46</v>
+      </c>
+      <c r="S40" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="11:19">
+      <c r="K41" s="29"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>17</v>
+      </c>
+      <c r="S41" s="11">
+        <v>9.3</v>
+      </c>
+    </row>
+    <row r="42" spans="11:19">
+      <c r="K42" s="29"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="5">
+        <v>38</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6">
+        <v>56</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="46">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9"/>
+    </row>
+    <row r="43" spans="11:19">
+      <c r="K43" s="29"/>
+      <c r="L43" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M43" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="2">
+        <v>31</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="P43" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="42">
+        <v>36</v>
+      </c>
+      <c r="S43" s="8">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="44" spans="11:19">
+      <c r="K44" s="29"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="N44" s="4">
+        <v>20</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="44">
+        <v>42</v>
+      </c>
+      <c r="S44" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="11:19">
+      <c r="K45" s="29"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="4"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <v>3</v>
+      </c>
+      <c r="S45" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="11:19">
+      <c r="K46" s="29"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N46" s="5">
+        <v>49</v>
+      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6">
+        <v>67</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="46">
+        <v>19</v>
+      </c>
+      <c r="S46" s="9"/>
+    </row>
+    <row r="47" spans="11:19">
+      <c r="K47" s="29"/>
+      <c r="L47" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="M47" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="7">
+        <v>3</v>
+      </c>
+      <c r="O47" s="44">
+        <v>23</v>
+      </c>
+      <c r="P47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>39</v>
+      </c>
+      <c r="R47" s="44">
+        <v>14</v>
+      </c>
+      <c r="S47" s="11">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="48" spans="11:19">
+      <c r="K48" s="29"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="31">
+      <c r="N48" s="1">
+        <v>25</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="10">
+        <v>47</v>
+      </c>
+      <c r="S48" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="11:19">
+      <c r="K49" s="29"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1">
+        <v>2</v>
+      </c>
+      <c r="S49" s="11">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="50" spans="11:19">
+      <c r="K50" s="29"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" s="6">
+        <v>72</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="46">
         <v>37</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="30" t="s">
+      <c r="S50" s="9"/>
+    </row>
+    <row r="51" spans="11:19">
+      <c r="K51" s="29"/>
+      <c r="L51" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="M51" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="42">
+        <v>29</v>
+      </c>
+      <c r="O51" s="3">
+        <v>2</v>
+      </c>
+      <c r="P51" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="R51" s="3">
+        <v>28</v>
+      </c>
+      <c r="S51" s="8">
         <v>10</v>
       </c>
-      <c r="D20" s="4">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7" t="s">
+    </row>
+    <row r="52" spans="11:19">
+      <c r="K52" s="29"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7">
-        <v>30</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="34">
-        <v>46</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="30" t="s">
+      <c r="N52" s="7">
+        <v>20</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="44">
+        <v>38</v>
+      </c>
+      <c r="S52" s="45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="11:19">
+      <c r="K53" s="29"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="11:19">
+      <c r="K54" s="32"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
-        <v>17</v>
-      </c>
-      <c r="I21" s="11">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="5">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>56</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>31</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F23" s="3">
-        <v>13</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="31">
-        <v>36</v>
-      </c>
-      <c r="I23" s="8">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="7">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="34">
-        <v>42</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5">
-        <v>49</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
-        <v>67</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="35">
-        <v>19</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3</v>
-      </c>
-      <c r="E27" s="34">
-        <v>23</v>
-      </c>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>39</v>
-      </c>
-      <c r="H27" s="34">
-        <v>14</v>
-      </c>
-      <c r="I27" s="11">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1">
-        <v>25</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="10">
-        <v>47</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1">
-        <v>2</v>
-      </c>
-      <c r="I29" s="11">
-        <v>57.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6">
-        <v>72</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6">
-        <v>74</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="35">
-        <v>37</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="31">
-        <v>29</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2</v>
-      </c>
-      <c r="F31" s="3">
-        <v>11</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="3">
-        <v>28</v>
-      </c>
-      <c r="I31" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="7">
-        <v>20</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="7">
-        <v>20</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="34">
-        <v>38</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="N54" s="6">
         <v>51</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6">
+      <c r="O54" s="6"/>
+      <c r="P54" s="6">
         <v>69</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="35">
+      <c r="Q54" s="6"/>
+      <c r="R54" s="46">
         <v>34</v>
       </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="S54" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A3:A18"/>
-    <mergeCell ref="A19:A34"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K11:K14"/>
     <mergeCell ref="K15:K18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="K23:K38"/>
+    <mergeCell ref="K39:K54"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="L51:L54"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="119" zoomScaleNormal="119" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="24.1607142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.1607142857143" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.3303571428571" customWidth="1"/>
+    <col min="7" max="7" width="11.3303571428571" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.66071428571429" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1971,44 +2822,44 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3">
@@ -2043,8 +2894,8 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -2079,8 +2930,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -2117,8 +2968,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -2155,8 +3006,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
@@ -2193,8 +3044,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3">
@@ -2229,8 +3080,8 @@
       </c>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -2261,8 +3112,8 @@
       </c>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -2293,8 +3144,8 @@
       </c>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -2325,8 +3176,8 @@
       </c>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:14">
+      <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
@@ -2361,8 +3212,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="3">
@@ -2397,8 +3248,8 @@
       </c>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
@@ -2433,8 +3284,8 @@
       </c>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
@@ -2467,8 +3318,8 @@
       </c>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
       <c r="B16" s="7">
         <v>5</v>
       </c>
@@ -2499,8 +3350,8 @@
       </c>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
@@ -2539,34 +3390,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="40" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="51" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="40" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="52"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="8"/>
       <c r="O18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2574,47 +3425,47 @@
         <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="7">
@@ -2642,8 +3493,8 @@
       <c r="N20" s="11"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="4"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -2671,8 +3522,8 @@
       <c r="N21" s="11"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+    <row r="22" spans="1:15">
+      <c r="A22" s="4"/>
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -2702,8 +3553,8 @@
       <c r="N22" s="11"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4"/>
       <c r="B23" s="1">
         <v>5</v>
       </c>
@@ -2733,8 +3584,8 @@
       <c r="N23" s="11"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:15">
+      <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
@@ -2768,8 +3619,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3">
@@ -2801,8 +3652,8 @@
       <c r="N25" s="25"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>3</v>
       </c>
@@ -2836,8 +3687,8 @@
       <c r="N26" s="26"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4"/>
       <c r="B27" s="1">
         <v>4</v>
       </c>
@@ -2871,8 +3722,8 @@
       <c r="N27" s="26"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4"/>
       <c r="B28" s="1">
         <v>5</v>
       </c>
@@ -2906,8 +3757,8 @@
       <c r="N28" s="11"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5"/>
       <c r="B29" s="6" t="s">
         <v>22</v>
       </c>
@@ -2943,8 +3794,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3">
@@ -2976,8 +3827,8 @@
       <c r="N30" s="25"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4"/>
       <c r="B31" s="7">
         <v>3</v>
       </c>
@@ -3007,8 +3858,8 @@
       <c r="N31" s="26"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="41"/>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4"/>
       <c r="B32" s="7">
         <v>4</v>
       </c>
@@ -3040,8 +3891,8 @@
       <c r="N32" s="26"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4"/>
       <c r="B33" s="7">
         <v>5</v>
       </c>
@@ -3073,8 +3924,8 @@
       <c r="N33" s="26"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="42"/>
+    <row r="34" spans="1:15">
+      <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
@@ -3108,31 +3959,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="I36" s="39" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="I36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="I36:K36"/>
     <mergeCell ref="A37:E37"/>
@@ -3142,15 +4001,8 @@
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A25:A29"/>
     <mergeCell ref="A30:A34"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -890,7 +890,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1000,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1445,22 +1448,18 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.4</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H3" s="8">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>6</v>
@@ -1493,17 +1492,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
-        <v>29</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7">
         <v>49</v>
       </c>
@@ -1543,10 +1538,10 @@
       <c r="E5" s="31"/>
       <c r="F5" s="33"/>
       <c r="G5" s="7">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="34">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="31" t="s">
@@ -1569,12 +1564,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="6">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>61</v>
-      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
         <v>0</v>
@@ -1605,22 +1598,18 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>8</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7" s="8">
-        <v>8.54</v>
+        <v>3.5</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>12</v>
@@ -1658,14 +1647,10 @@
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
-        <v>26</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>8</v>
@@ -1703,9 +1688,11 @@
       <c r="E9" s="31"/>
       <c r="F9" s="33"/>
       <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="36">
+        <v>53.8</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="31" t="s">
         <v>10</v>
@@ -1727,15 +1714,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="6">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>71</v>
-      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H10" s="9"/>
       <c r="K10" s="32"/>
@@ -1763,24 +1748,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.2</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
-        <v>18</v>
-      </c>
-      <c r="H11" s="8">
-        <v>17.5</v>
-      </c>
-      <c r="K11" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="37">
+        <v>20</v>
+      </c>
+      <c r="K11" s="38" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1811,24 +1792,20 @@
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="7">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="11">
         <v>0.1</v>
       </c>
-      <c r="K12" s="38"/>
+      <c r="K12" s="39"/>
       <c r="L12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="36"/>
-      <c r="K13" s="38"/>
+      <c r="K13" s="39"/>
       <c r="L13" s="31" t="s">
         <v>10</v>
       </c>
@@ -1885,18 +1862,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="6">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>79</v>
-      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="K14" s="39"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1997,7 +1972,12 @@
       </c>
       <c r="R18" s="9"/>
     </row>
-    <row r="21" spans="13:19">
+    <row r="20" spans="7:7">
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="7:19">
+      <c r="G21"/>
+      <c r="H21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
         <v>0</v>
@@ -2012,7 +1992,9 @@
       </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="13:19">
+    <row r="22" spans="7:19">
+      <c r="G22"/>
+      <c r="H22"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>4</v>
@@ -2033,7 +2015,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="11:19">
+    <row r="23" spans="7:19">
+      <c r="G23"/>
+      <c r="H23"/>
       <c r="K23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2211,7 +2195,7 @@
     </row>
     <row r="31" spans="11:19">
       <c r="K31" s="4"/>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="38" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2232,7 +2216,7 @@
     </row>
     <row r="32" spans="11:19">
       <c r="K32" s="4"/>
-      <c r="L32" s="38"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="7" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2241,7 @@
     </row>
     <row r="33" spans="11:19">
       <c r="K33" s="4"/>
-      <c r="L33" s="38"/>
+      <c r="L33" s="39"/>
       <c r="M33" s="31" t="s">
         <v>10</v>
       </c>
@@ -2274,7 +2258,7 @@
     </row>
     <row r="34" spans="11:19">
       <c r="K34" s="4"/>
-      <c r="L34" s="39"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2371,7 @@
       <c r="K39" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="40" t="s">
+      <c r="L39" s="41" t="s">
         <v>6</v>
       </c>
       <c r="M39" s="5" t="s">
@@ -2396,7 +2380,7 @@
       <c r="N39" s="2">
         <v>31</v>
       </c>
-      <c r="O39" s="42" t="s">
+      <c r="O39" s="43" t="s">
         <v>8</v>
       </c>
       <c r="P39" s="3">
@@ -2405,7 +2389,7 @@
       <c r="Q39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R39" s="42">
+      <c r="R39" s="43">
         <v>37</v>
       </c>
       <c r="S39" s="8" t="s">
@@ -2414,8 +2398,8 @@
     </row>
     <row r="40" spans="11:19">
       <c r="K40" s="29"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="43" t="s">
+      <c r="L40" s="41"/>
+      <c r="M40" s="44" t="s">
         <v>9</v>
       </c>
       <c r="N40" s="4">
@@ -2430,17 +2414,17 @@
       <c r="Q40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="44">
+      <c r="R40" s="45">
         <v>46</v>
       </c>
-      <c r="S40" s="45" t="s">
+      <c r="S40" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="11:19">
       <c r="K41" s="29"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="43" t="s">
+      <c r="L41" s="41"/>
+      <c r="M41" s="44" t="s">
         <v>10</v>
       </c>
       <c r="N41" s="4"/>
@@ -2456,8 +2440,8 @@
     </row>
     <row r="42" spans="11:19">
       <c r="K42" s="29"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="43" t="s">
+      <c r="L42" s="41"/>
+      <c r="M42" s="44" t="s">
         <v>11</v>
       </c>
       <c r="N42" s="5">
@@ -2468,17 +2452,17 @@
         <v>56</v>
       </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="46">
+      <c r="R42" s="47">
         <v>0</v>
       </c>
       <c r="S42" s="9"/>
     </row>
     <row r="43" spans="11:19">
       <c r="K43" s="29"/>
-      <c r="L43" s="40" t="s">
+      <c r="L43" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="43" t="s">
+      <c r="M43" s="44" t="s">
         <v>7</v>
       </c>
       <c r="N43" s="2">
@@ -2490,10 +2474,10 @@
       <c r="P43" s="3">
         <v>13</v>
       </c>
-      <c r="Q43" s="42" t="s">
+      <c r="Q43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="43">
         <v>36</v>
       </c>
       <c r="S43" s="8">
@@ -2502,8 +2486,8 @@
     </row>
     <row r="44" spans="11:19">
       <c r="K44" s="29"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="43" t="s">
+      <c r="L44" s="41"/>
+      <c r="M44" s="44" t="s">
         <v>9</v>
       </c>
       <c r="N44" s="4">
@@ -2518,17 +2502,17 @@
       <c r="Q44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="44">
+      <c r="R44" s="45">
         <v>42</v>
       </c>
-      <c r="S44" s="45" t="s">
+      <c r="S44" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="11:19">
       <c r="K45" s="29"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="43" t="s">
+      <c r="L45" s="41"/>
+      <c r="M45" s="44" t="s">
         <v>10</v>
       </c>
       <c r="N45" s="4"/>
@@ -2544,8 +2528,8 @@
     </row>
     <row r="46" spans="11:19">
       <c r="K46" s="29"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="43" t="s">
+      <c r="L46" s="41"/>
+      <c r="M46" s="44" t="s">
         <v>11</v>
       </c>
       <c r="N46" s="5">
@@ -2556,23 +2540,23 @@
         <v>67</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="46">
+      <c r="R46" s="47">
         <v>19</v>
       </c>
       <c r="S46" s="9"/>
     </row>
     <row r="47" spans="11:19">
       <c r="K47" s="29"/>
-      <c r="L47" s="41" t="s">
+      <c r="L47" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="40" t="s">
+      <c r="M47" s="41" t="s">
         <v>7</v>
       </c>
       <c r="N47" s="7">
         <v>3</v>
       </c>
-      <c r="O47" s="44">
+      <c r="O47" s="45">
         <v>23</v>
       </c>
       <c r="P47" s="7">
@@ -2581,7 +2565,7 @@
       <c r="Q47" s="7">
         <v>39</v>
       </c>
-      <c r="R47" s="44">
+      <c r="R47" s="45">
         <v>14</v>
       </c>
       <c r="S47" s="11">
@@ -2590,8 +2574,8 @@
     </row>
     <row r="48" spans="11:19">
       <c r="K48" s="29"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40" t="s">
+      <c r="L48" s="41"/>
+      <c r="M48" s="41" t="s">
         <v>9</v>
       </c>
       <c r="N48" s="1">
@@ -2609,14 +2593,14 @@
       <c r="R48" s="10">
         <v>47</v>
       </c>
-      <c r="S48" s="45" t="s">
+      <c r="S48" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="11:19">
       <c r="K49" s="29"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40" t="s">
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N49" s="1"/>
@@ -2632,8 +2616,8 @@
     </row>
     <row r="50" spans="11:19">
       <c r="K50" s="29"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40" t="s">
+      <c r="L50" s="41"/>
+      <c r="M50" s="41" t="s">
         <v>11</v>
       </c>
       <c r="N50" s="6">
@@ -2644,20 +2628,20 @@
         <v>74</v>
       </c>
       <c r="Q50" s="6"/>
-      <c r="R50" s="46">
+      <c r="R50" s="47">
         <v>37</v>
       </c>
       <c r="S50" s="9"/>
     </row>
     <row r="51" spans="11:19">
       <c r="K51" s="29"/>
-      <c r="L51" s="40" t="s">
+      <c r="L51" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M51" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N51" s="42">
+      <c r="N51" s="43">
         <v>29</v>
       </c>
       <c r="O51" s="3">
@@ -2666,7 +2650,7 @@
       <c r="P51" s="3">
         <v>11</v>
       </c>
-      <c r="Q51" s="42" t="s">
+      <c r="Q51" s="43" t="s">
         <v>8</v>
       </c>
       <c r="R51" s="3">
@@ -2678,8 +2662,8 @@
     </row>
     <row r="52" spans="11:19">
       <c r="K52" s="29"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40" t="s">
+      <c r="L52" s="41"/>
+      <c r="M52" s="41" t="s">
         <v>9</v>
       </c>
       <c r="N52" s="7">
@@ -2694,17 +2678,17 @@
       <c r="Q52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="44">
+      <c r="R52" s="45">
         <v>38</v>
       </c>
-      <c r="S52" s="45" t="s">
+      <c r="S52" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="11:19">
       <c r="K53" s="29"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40" t="s">
+      <c r="L53" s="41"/>
+      <c r="M53" s="41" t="s">
         <v>10</v>
       </c>
       <c r="N53" s="7"/>
@@ -2716,8 +2700,8 @@
     </row>
     <row r="54" spans="11:19">
       <c r="K54" s="32"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40" t="s">
+      <c r="L54" s="41"/>
+      <c r="M54" s="41" t="s">
         <v>11</v>
       </c>
       <c r="N54" s="6">
@@ -2728,7 +2712,7 @@
         <v>69</v>
       </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="46">
+      <c r="R54" s="47">
         <v>34</v>
       </c>
       <c r="S54" s="9"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20260" windowHeight="12460"/>
+    <workbookView windowWidth="17280" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -166,6 +166,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -195,6 +203,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -213,17 +236,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,46 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,7 +304,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +370,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,31 +424,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,55 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,31 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,22 +656,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,32 +665,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -740,157 +699,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,9 +981,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -992,9 +989,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1357,7 +1351,7 @@
   <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -1448,15 +1442,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="3">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.3</v>
+      </c>
       <c r="G3" s="3">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H3" s="8">
         <v>0.4</v>
@@ -1492,15 +1490,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7">
+        <v>72</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="7">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>8</v>
@@ -1530,50 +1532,52 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="7">
-        <v>20</v>
-      </c>
-      <c r="H5" s="34">
-        <v>10.4</v>
+        <v>47</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9.5</v>
       </c>
       <c r="K5" s="29"/>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="33"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="7">
         <v>17</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="11">
         <v>9.3</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="32"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6">
+        <v>86</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="9"/>
-      <c r="K6" s="32"/>
+      <c r="K6" s="31"/>
       <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1598,18 +1602,22 @@
         <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="35"/>
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="33">
+        <v>2.9</v>
+      </c>
       <c r="G7" s="3">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>12</v>
@@ -1626,7 +1634,7 @@
       <c r="O7" s="3">
         <v>29</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="33">
         <v>0.3</v>
       </c>
       <c r="Q7" s="3">
@@ -1642,15 +1650,19 @@
         <v>9</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="7">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>8</v>
@@ -1680,50 +1692,52 @@
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:18">
       <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="7">
         <v>1</v>
       </c>
-      <c r="H9" s="36">
-        <v>53.8</v>
+      <c r="H9" s="34">
+        <v>54</v>
       </c>
       <c r="K9" s="29"/>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="33"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="32"/>
       <c r="Q9" s="7">
         <v>14</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="32"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="6">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6">
+        <v>115</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H10" s="9"/>
-      <c r="K10" s="32"/>
+      <c r="K10" s="31"/>
       <c r="L10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1748,20 +1762,24 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>1.8</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <v>19</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6.6</v>
+      </c>
       <c r="G11" s="3">
-        <v>27</v>
-      </c>
-      <c r="H11" s="37">
-        <v>20</v>
-      </c>
-      <c r="K11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="35">
+        <v>22.4</v>
+      </c>
+      <c r="K11" s="36" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="3" t="s">
@@ -1770,13 +1788,13 @@
       <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <v>23</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="33">
         <v>39</v>
       </c>
       <c r="Q11" s="3">
@@ -1792,20 +1810,24 @@
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7">
         <v>0.4</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
       <c r="G12" s="7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H12" s="11">
         <v>0.1</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1830,25 +1852,25 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="31" t="s">
+      <c r="H13" s="34"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="33"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="7">
         <v>25</v>
       </c>
@@ -1857,21 +1879,23 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="6">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>142</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1940,22 +1964,22 @@
     </row>
     <row r="17" spans="11:18">
       <c r="K17" s="29"/>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="33"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="7">
         <v>1</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="34">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="11:18">
-      <c r="K18" s="32"/>
+      <c r="K18" s="31"/>
       <c r="L18" s="6" t="s">
         <v>11</v>
       </c>
@@ -1977,7 +2001,6 @@
     </row>
     <row r="21" spans="7:19">
       <c r="G21"/>
-      <c r="H21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
         <v>0</v>
@@ -1994,7 +2017,6 @@
     </row>
     <row r="22" spans="7:19">
       <c r="G22"/>
-      <c r="H22"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>4</v>
@@ -2017,7 +2039,6 @@
     </row>
     <row r="23" spans="7:19">
       <c r="G23"/>
-      <c r="H23"/>
       <c r="K23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2074,13 +2095,13 @@
     <row r="25" spans="11:19">
       <c r="K25" s="4"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="31" t="s">
+      <c r="M25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="33"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="32"/>
       <c r="R25" s="7">
         <v>0</v>
       </c>
@@ -2088,7 +2109,7 @@
     </row>
     <row r="26" spans="11:19">
       <c r="K26" s="4"/>
-      <c r="L26" s="32"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="6" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2143,7 @@
       <c r="P27" s="3">
         <v>16</v>
       </c>
-      <c r="Q27" s="35" t="s">
+      <c r="Q27" s="33" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="3">
@@ -2160,23 +2181,23 @@
     <row r="29" spans="11:19">
       <c r="K29" s="4"/>
       <c r="L29" s="29"/>
-      <c r="M29" s="31" t="s">
+      <c r="M29" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="33"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="32"/>
       <c r="R29" s="7">
         <v>11</v>
       </c>
-      <c r="S29" s="36">
+      <c r="S29" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="11:19">
       <c r="K30" s="4"/>
-      <c r="L30" s="32"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="6" t="s">
         <v>11</v>
       </c>
@@ -2195,7 +2216,7 @@
     </row>
     <row r="31" spans="11:19">
       <c r="K31" s="4"/>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="36" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2216,7 +2237,7 @@
     </row>
     <row r="32" spans="11:19">
       <c r="K32" s="4"/>
-      <c r="L32" s="39"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="7" t="s">
         <v>9</v>
       </c>
@@ -2241,14 +2262,14 @@
     </row>
     <row r="33" spans="11:19">
       <c r="K33" s="4"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="31" t="s">
+      <c r="L33" s="37"/>
+      <c r="M33" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="33"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="32"/>
       <c r="R33" s="7">
         <v>23</v>
       </c>
@@ -2258,7 +2279,7 @@
     </row>
     <row r="34" spans="11:19">
       <c r="K34" s="4"/>
-      <c r="L34" s="40"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="6" t="s">
         <v>11</v>
       </c>
@@ -2276,7 +2297,7 @@
       <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="33"/>
+      <c r="A35" s="32"/>
       <c r="K35" s="4"/>
       <c r="L35" s="28" t="s">
         <v>13</v>
@@ -2304,7 +2325,7 @@
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="33"/>
+      <c r="A36" s="32"/>
       <c r="K36" s="4"/>
       <c r="L36" s="29"/>
       <c r="M36" s="7" t="s">
@@ -2330,16 +2351,16 @@
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="33"/>
+      <c r="A37" s="32"/>
       <c r="K37" s="4"/>
       <c r="L37" s="29"/>
-      <c r="M37" s="31" t="s">
+      <c r="M37" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="33"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="32"/>
       <c r="R37" s="7">
         <v>1</v>
       </c>
@@ -2348,9 +2369,9 @@
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="33"/>
+      <c r="A38" s="32"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="32"/>
+      <c r="L38" s="31"/>
       <c r="M38" s="6" t="s">
         <v>11</v>
       </c>
@@ -2371,7 +2392,7 @@
       <c r="K39" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="41" t="s">
+      <c r="L39" s="39" t="s">
         <v>6</v>
       </c>
       <c r="M39" s="5" t="s">
@@ -2380,7 +2401,7 @@
       <c r="N39" s="2">
         <v>31</v>
       </c>
-      <c r="O39" s="43" t="s">
+      <c r="O39" s="41" t="s">
         <v>8</v>
       </c>
       <c r="P39" s="3">
@@ -2389,7 +2410,7 @@
       <c r="Q39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R39" s="43">
+      <c r="R39" s="41">
         <v>37</v>
       </c>
       <c r="S39" s="8" t="s">
@@ -2398,8 +2419,8 @@
     </row>
     <row r="40" spans="11:19">
       <c r="K40" s="29"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="44" t="s">
+      <c r="L40" s="39"/>
+      <c r="M40" s="42" t="s">
         <v>9</v>
       </c>
       <c r="N40" s="4">
@@ -2414,17 +2435,17 @@
       <c r="Q40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="43">
         <v>46</v>
       </c>
-      <c r="S40" s="46" t="s">
+      <c r="S40" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="11:19">
       <c r="K41" s="29"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="44" t="s">
+      <c r="L41" s="39"/>
+      <c r="M41" s="42" t="s">
         <v>10</v>
       </c>
       <c r="N41" s="4"/>
@@ -2440,8 +2461,8 @@
     </row>
     <row r="42" spans="11:19">
       <c r="K42" s="29"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="44" t="s">
+      <c r="L42" s="39"/>
+      <c r="M42" s="42" t="s">
         <v>11</v>
       </c>
       <c r="N42" s="5">
@@ -2452,17 +2473,17 @@
         <v>56</v>
       </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="47">
+      <c r="R42" s="45">
         <v>0</v>
       </c>
       <c r="S42" s="9"/>
     </row>
     <row r="43" spans="11:19">
       <c r="K43" s="29"/>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="44" t="s">
+      <c r="M43" s="42" t="s">
         <v>7</v>
       </c>
       <c r="N43" s="2">
@@ -2474,10 +2495,10 @@
       <c r="P43" s="3">
         <v>13</v>
       </c>
-      <c r="Q43" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="R43" s="43">
+      <c r="Q43" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="41">
         <v>36</v>
       </c>
       <c r="S43" s="8">
@@ -2486,8 +2507,8 @@
     </row>
     <row r="44" spans="11:19">
       <c r="K44" s="29"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="44" t="s">
+      <c r="L44" s="39"/>
+      <c r="M44" s="42" t="s">
         <v>9</v>
       </c>
       <c r="N44" s="4">
@@ -2502,17 +2523,17 @@
       <c r="Q44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="45">
+      <c r="R44" s="43">
         <v>42</v>
       </c>
-      <c r="S44" s="46" t="s">
+      <c r="S44" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="11:19">
       <c r="K45" s="29"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="44" t="s">
+      <c r="L45" s="39"/>
+      <c r="M45" s="42" t="s">
         <v>10</v>
       </c>
       <c r="N45" s="4"/>
@@ -2528,8 +2549,8 @@
     </row>
     <row r="46" spans="11:19">
       <c r="K46" s="29"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="44" t="s">
+      <c r="L46" s="39"/>
+      <c r="M46" s="42" t="s">
         <v>11</v>
       </c>
       <c r="N46" s="5">
@@ -2540,23 +2561,23 @@
         <v>67</v>
       </c>
       <c r="Q46" s="6"/>
-      <c r="R46" s="47">
+      <c r="R46" s="45">
         <v>19</v>
       </c>
       <c r="S46" s="9"/>
     </row>
     <row r="47" spans="11:19">
       <c r="K47" s="29"/>
-      <c r="L47" s="42" t="s">
+      <c r="L47" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="41" t="s">
+      <c r="M47" s="39" t="s">
         <v>7</v>
       </c>
       <c r="N47" s="7">
         <v>3</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="43">
         <v>23</v>
       </c>
       <c r="P47" s="7">
@@ -2565,7 +2586,7 @@
       <c r="Q47" s="7">
         <v>39</v>
       </c>
-      <c r="R47" s="45">
+      <c r="R47" s="43">
         <v>14</v>
       </c>
       <c r="S47" s="11">
@@ -2574,8 +2595,8 @@
     </row>
     <row r="48" spans="11:19">
       <c r="K48" s="29"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41" t="s">
+      <c r="L48" s="39"/>
+      <c r="M48" s="39" t="s">
         <v>9</v>
       </c>
       <c r="N48" s="1">
@@ -2593,14 +2614,14 @@
       <c r="R48" s="10">
         <v>47</v>
       </c>
-      <c r="S48" s="46" t="s">
+      <c r="S48" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="11:19">
       <c r="K49" s="29"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="L49" s="39"/>
+      <c r="M49" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N49" s="1"/>
@@ -2616,8 +2637,8 @@
     </row>
     <row r="50" spans="11:19">
       <c r="K50" s="29"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41" t="s">
+      <c r="L50" s="39"/>
+      <c r="M50" s="39" t="s">
         <v>11</v>
       </c>
       <c r="N50" s="6">
@@ -2628,20 +2649,20 @@
         <v>74</v>
       </c>
       <c r="Q50" s="6"/>
-      <c r="R50" s="47">
+      <c r="R50" s="45">
         <v>37</v>
       </c>
       <c r="S50" s="9"/>
     </row>
     <row r="51" spans="11:19">
       <c r="K51" s="29"/>
-      <c r="L51" s="41" t="s">
+      <c r="L51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M51" s="41" t="s">
+      <c r="M51" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="N51" s="43">
+      <c r="N51" s="41">
         <v>29</v>
       </c>
       <c r="O51" s="3">
@@ -2650,7 +2671,7 @@
       <c r="P51" s="3">
         <v>11</v>
       </c>
-      <c r="Q51" s="43" t="s">
+      <c r="Q51" s="41" t="s">
         <v>8</v>
       </c>
       <c r="R51" s="3">
@@ -2662,8 +2683,8 @@
     </row>
     <row r="52" spans="11:19">
       <c r="K52" s="29"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41" t="s">
+      <c r="L52" s="39"/>
+      <c r="M52" s="39" t="s">
         <v>9</v>
       </c>
       <c r="N52" s="7">
@@ -2678,17 +2699,17 @@
       <c r="Q52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="45">
+      <c r="R52" s="43">
         <v>38</v>
       </c>
-      <c r="S52" s="46" t="s">
+      <c r="S52" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="11:19">
       <c r="K53" s="29"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41" t="s">
+      <c r="L53" s="39"/>
+      <c r="M53" s="39" t="s">
         <v>10</v>
       </c>
       <c r="N53" s="7"/>
@@ -2699,9 +2720,9 @@
       <c r="S53" s="11"/>
     </row>
     <row r="54" spans="11:19">
-      <c r="K54" s="32"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41" t="s">
+      <c r="K54" s="31"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39" t="s">
         <v>11</v>
       </c>
       <c r="N54" s="6">
@@ -2712,7 +2733,7 @@
         <v>69</v>
       </c>
       <c r="Q54" s="6"/>
-      <c r="R54" s="47">
+      <c r="R54" s="45">
         <v>34</v>
       </c>
       <c r="S54" s="9"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18180" windowHeight="12460" activeTab="1"/>
+    <workbookView windowWidth="16100" windowHeight="12460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>Z3</t>
   </si>
@@ -111,6 +111,12 @@
     <t>(\Sigma)*6789</t>
   </si>
   <si>
+    <t>FLAT</t>
+  </si>
+  <si>
+    <t>NON-FLAT</t>
+  </si>
+  <si>
     <t>trau unsat-&gt;fail</t>
   </si>
   <si>
@@ -135,9 +141,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -184,18 +190,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,22 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,15 +221,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +253,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,7 +268,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,9 +283,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -334,7 +340,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +376,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,37 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,43 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,15 +680,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -703,17 +700,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,17 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -758,147 +740,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,16 +914,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -951,33 +954,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,12 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,12 +1042,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1437,1384 +1404,1384 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="9.16071428571429" style="47"/>
+    <col min="7" max="7" width="9.16071428571429" style="36"/>
     <col min="11" max="11" width="17.0982142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:18">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="3">
         <v>56</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="3">
         <v>0.4</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="3">
         <v>42</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="3">
         <v>2.3</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="3">
         <v>64</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="10">
         <v>0.4</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="3">
         <v>62</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="3">
         <v>40</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="3">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="3">
         <v>72</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="49"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>69</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="13">
         <v>72</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="13">
         <v>89</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="38"/>
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="13">
         <v>68</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="13">
         <v>68</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="13">
         <v>111</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="49"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="19">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="13">
         <v>47</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="6">
         <v>9.5</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="19">
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="13">
         <v>17</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="6">
         <v>9.3</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="51"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="40"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="8">
         <v>75</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>86</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="18" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="8">
         <v>70</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
         <v>92</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18">
-        <v>0</v>
-      </c>
-      <c r="R6" s="21"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="3">
         <v>33</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="3">
         <v>1.4</v>
       </c>
-      <c r="E7" s="15">
-        <v>25</v>
-      </c>
-      <c r="F7" s="53">
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="42">
         <v>2.9</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="3">
         <v>52</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="10">
         <v>3.3</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="3">
         <v>58</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="3">
         <v>0.5</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="3">
         <v>29</v>
       </c>
-      <c r="P7" s="53">
+      <c r="P7" s="42">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="3">
         <v>70</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="10">
         <v>2.1</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="49"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <v>59</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="13">
         <v>60</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="13">
         <v>88</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="19" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="13">
         <v>42</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="13">
         <v>44</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="13">
         <v>97</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="6">
         <v>1.8</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:18">
-      <c r="A9" s="49"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="19">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="54">
+      <c r="H9" s="12">
         <v>54</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="19">
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="13">
         <v>14</v>
       </c>
-      <c r="R9" s="54">
+      <c r="R9" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="51"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="8">
         <v>108</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <v>115</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <v>59</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="18" t="s">
+      <c r="H10" s="9"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="8">
         <v>100</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
         <v>127</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
         <v>19</v>
       </c>
-      <c r="R10" s="21"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="3">
         <v>35</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="3">
         <v>1.8</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="3">
         <v>19</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="3">
         <v>6.6</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="3">
         <v>47</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="4">
         <v>22.4</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="3">
         <v>3</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="42">
         <v>23</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="53">
+      <c r="P11" s="42">
         <v>39</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="3">
         <v>14</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="10">
         <v>7.5</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="49"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>36</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="13">
         <v>0.3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <v>39</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>0.4</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="13">
         <v>72</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="6">
         <v>0.1</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="19" t="s">
+      <c r="K12" s="44"/>
+      <c r="L12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="13">
         <v>63</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="19">
+      <c r="O12" s="13">
         <v>66</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="13">
         <v>0.2</v>
       </c>
-      <c r="Q12" s="19">
+      <c r="Q12" s="13">
         <v>124</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="6">
         <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="49"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="54"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="50" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="19">
-        <v>25</v>
-      </c>
-      <c r="R13" s="22">
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="13">
+        <v>25</v>
+      </c>
+      <c r="R13" s="6">
         <v>13.4</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="51"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="40"/>
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="8">
         <v>129</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>142</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
         <v>81</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="18" t="s">
+      <c r="H14" s="9"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="8">
         <v>134</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
         <v>133</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8">
         <v>37</v>
       </c>
-      <c r="R14" s="21"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="11:18">
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="3">
         <v>49</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="3">
         <v>1.2</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="3">
         <v>26</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="3">
         <v>4.8</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="3">
         <v>58</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="10">
         <v>13.4</v>
       </c>
     </row>
     <row r="16" spans="11:18">
-      <c r="K16" s="49"/>
-      <c r="L16" s="19" t="s">
+      <c r="K16" s="38"/>
+      <c r="L16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="13">
         <v>42</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="13">
         <v>43</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="13">
         <v>82</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="11:18">
-      <c r="K17" s="49"/>
-      <c r="L17" s="50" t="s">
+      <c r="K17" s="38"/>
+      <c r="L17" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="19">
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="13">
         <v>1</v>
       </c>
-      <c r="R17" s="54">
+      <c r="R17" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="11:18">
-      <c r="K18" s="51"/>
-      <c r="L18" s="18" t="s">
+      <c r="K18" s="40"/>
+      <c r="L18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="8">
         <v>109</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8">
         <v>131</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
         <v>59</v>
       </c>
-      <c r="R18" s="21"/>
+      <c r="R18" s="9"/>
     </row>
     <row r="20" spans="7:7">
       <c r="G20"/>
     </row>
     <row r="21" spans="7:19">
       <c r="G21"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2" t="s">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="2"/>
+      <c r="S21" s="1"/>
     </row>
     <row r="22" spans="7:19">
       <c r="G22"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2" t="s">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="7:19">
       <c r="G23"/>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="15" t="s">
+      <c r="M23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="3">
         <v>31</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="3">
         <v>26</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="3">
         <v>1.2</v>
       </c>
-      <c r="R23" s="15">
+      <c r="R23" s="3">
         <v>35</v>
       </c>
-      <c r="S23" s="20">
+      <c r="S23" s="10">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="11:19">
-      <c r="K24" s="16"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="19" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="13">
         <v>37</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="13">
         <v>38</v>
       </c>
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="13">
         <v>65</v>
       </c>
-      <c r="S24" s="22">
+      <c r="S24" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="11:19">
-      <c r="K25" s="16"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="19">
-        <v>0</v>
-      </c>
-      <c r="S25" s="43"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="34"/>
     </row>
     <row r="26" spans="11:19">
-      <c r="K26" s="16"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="18" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="8">
         <v>32</v>
       </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18">
+      <c r="O26" s="8"/>
+      <c r="P26" s="8">
         <v>36</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8">
+        <v>0</v>
+      </c>
+      <c r="S26" s="9"/>
     </row>
     <row r="27" spans="11:19">
-      <c r="K27" s="16"/>
-      <c r="L27" s="48" t="s">
+      <c r="K27" s="5"/>
+      <c r="L27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="3">
         <v>27</v>
       </c>
-      <c r="O27" s="15" t="s">
+      <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="3">
         <v>16</v>
       </c>
-      <c r="Q27" s="53" t="s">
+      <c r="Q27" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R27" s="15">
+      <c r="R27" s="3">
         <v>34</v>
       </c>
-      <c r="S27" s="20">
+      <c r="S27" s="10">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="11:19">
-      <c r="K28" s="16"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="19" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="13">
         <v>22</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="13">
         <v>24</v>
       </c>
-      <c r="Q28" s="19" t="s">
+      <c r="Q28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="13">
         <v>55</v>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="6">
         <v>3.2</v>
       </c>
     </row>
     <row r="29" spans="11:19">
-      <c r="K29" s="16"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50" t="s">
+      <c r="K29" s="5"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="19">
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="13">
         <v>11</v>
       </c>
-      <c r="S29" s="54">
+      <c r="S29" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="11:19">
-      <c r="K30" s="16"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="18" t="s">
+      <c r="K30" s="5"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="8">
         <v>51</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18">
+      <c r="O30" s="8"/>
+      <c r="P30" s="8">
         <v>60</v>
       </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18">
-        <v>0</v>
-      </c>
-      <c r="S30" s="21"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8">
+        <v>0</v>
+      </c>
+      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="11:19">
-      <c r="K31" s="16"/>
-      <c r="L31" s="56" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M31" s="15" t="s">
+      <c r="M31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15">
-        <v>0</v>
-      </c>
-      <c r="S31" s="20"/>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="11:19">
-      <c r="K32" s="16"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="19" t="s">
+      <c r="K32" s="5"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="13">
         <v>38</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="13">
         <v>41</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="13">
         <v>0.3</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="13">
         <v>77</v>
       </c>
-      <c r="S32" s="22">
+      <c r="S32" s="6">
         <v>3.4</v>
       </c>
     </row>
     <row r="33" spans="11:19">
-      <c r="K33" s="16"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="50" t="s">
+      <c r="K33" s="5"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="19">
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="13">
         <v>23</v>
       </c>
-      <c r="S33" s="22">
+      <c r="S33" s="6">
         <v>13.4</v>
       </c>
     </row>
     <row r="34" spans="11:19">
-      <c r="K34" s="16"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="18" t="s">
+      <c r="K34" s="5"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="8">
         <v>62</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18">
+      <c r="O34" s="8"/>
+      <c r="P34" s="8">
         <v>59</v>
       </c>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18">
-        <v>0</v>
-      </c>
-      <c r="S34" s="21"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="52"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="48" t="s">
+      <c r="A35" s="41"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="15" t="s">
+      <c r="M35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N35" s="3">
         <v>20</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="3">
         <v>0.2</v>
       </c>
-      <c r="P35" s="15">
+      <c r="P35" s="3">
         <v>15</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="3">
         <v>8.2</v>
       </c>
-      <c r="R35" s="15">
+      <c r="R35" s="3">
         <v>30</v>
       </c>
-      <c r="S35" s="20">
+      <c r="S35" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="52"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="19" t="s">
+      <c r="A36" s="41"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="13">
         <v>22</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="13">
         <v>23</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="13">
         <v>0.2</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="13">
         <v>44</v>
       </c>
-      <c r="S36" s="22" t="s">
+      <c r="S36" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="52"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="50" t="s">
+      <c r="A37" s="41"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="19">
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="13">
         <v>1</v>
       </c>
-      <c r="S37" s="22">
+      <c r="S37" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="52"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="18" t="s">
+      <c r="A38" s="41"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N38" s="18">
+      <c r="N38" s="8">
         <v>58</v>
       </c>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18">
+      <c r="O38" s="8"/>
+      <c r="P38" s="8">
         <v>62</v>
       </c>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18">
-        <v>25</v>
-      </c>
-      <c r="S38" s="21"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8">
+        <v>25</v>
+      </c>
+      <c r="S38" s="9"/>
     </row>
     <row r="39" spans="11:19">
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="59" t="s">
+      <c r="L39" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M39" s="17" t="s">
+      <c r="M39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="2">
         <v>31</v>
       </c>
-      <c r="O39" s="61" t="s">
+      <c r="O39" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P39" s="15">
+      <c r="P39" s="3">
         <v>14</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R39" s="61">
+      <c r="R39" s="48">
         <v>37</v>
       </c>
-      <c r="S39" s="20" t="s">
+      <c r="S39" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="11:19">
-      <c r="K40" s="49"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="62" t="s">
+      <c r="K40" s="38"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="16">
+      <c r="N40" s="5">
         <v>31</v>
       </c>
-      <c r="O40" s="19" t="s">
+      <c r="O40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="13">
         <v>30</v>
       </c>
-      <c r="Q40" s="19" t="s">
+      <c r="Q40" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R40" s="63">
+      <c r="R40" s="50">
         <v>46</v>
       </c>
-      <c r="S40" s="64" t="s">
+      <c r="S40" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="11:19">
-      <c r="K41" s="49"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="62" t="s">
+      <c r="K41" s="38"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="16"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19">
+      <c r="N41" s="5"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13">
         <v>17</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="6">
         <v>9.3</v>
       </c>
     </row>
     <row r="42" spans="11:19">
-      <c r="K42" s="49"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="62" t="s">
+      <c r="K42" s="38"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="7">
         <v>38</v>
       </c>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18">
+      <c r="O42" s="8"/>
+      <c r="P42" s="8">
         <v>56</v>
       </c>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="65">
-        <v>0</v>
-      </c>
-      <c r="S42" s="21"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="52">
+        <v>0</v>
+      </c>
+      <c r="S42" s="9"/>
     </row>
     <row r="43" spans="11:19">
-      <c r="K43" s="49"/>
-      <c r="L43" s="59" t="s">
+      <c r="K43" s="38"/>
+      <c r="L43" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="M43" s="62" t="s">
+      <c r="M43" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N43" s="14">
+      <c r="N43" s="2">
         <v>31</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O43" s="3">
         <v>0.8</v>
       </c>
-      <c r="P43" s="15">
+      <c r="P43" s="3">
         <v>13</v>
       </c>
-      <c r="Q43" s="61" t="s">
+      <c r="Q43" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="61">
+      <c r="R43" s="48">
         <v>36</v>
       </c>
-      <c r="S43" s="20">
+      <c r="S43" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="44" spans="11:19">
-      <c r="K44" s="49"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="62" t="s">
+      <c r="K44" s="38"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N44" s="5">
         <v>20</v>
       </c>
-      <c r="O44" s="19" t="s">
+      <c r="O44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="19">
+      <c r="P44" s="13">
         <v>20</v>
       </c>
-      <c r="Q44" s="19" t="s">
+      <c r="Q44" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="63">
+      <c r="R44" s="50">
         <v>42</v>
       </c>
-      <c r="S44" s="64" t="s">
+      <c r="S44" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="11:19">
-      <c r="K45" s="49"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="62" t="s">
+      <c r="K45" s="38"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="16"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19">
+      <c r="N45" s="5"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13">
         <v>3</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="6">
         <v>54</v>
       </c>
     </row>
     <row r="46" spans="11:19">
-      <c r="K46" s="49"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="62" t="s">
+      <c r="K46" s="38"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="7">
         <v>49</v>
       </c>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18">
+      <c r="O46" s="8"/>
+      <c r="P46" s="8">
         <v>67</v>
       </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="65">
+      <c r="Q46" s="8"/>
+      <c r="R46" s="52">
         <v>19</v>
       </c>
-      <c r="S46" s="21"/>
+      <c r="S46" s="9"/>
     </row>
     <row r="47" spans="11:19">
-      <c r="K47" s="49"/>
-      <c r="L47" s="60" t="s">
+      <c r="K47" s="38"/>
+      <c r="L47" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="59" t="s">
+      <c r="M47" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="13">
         <v>3</v>
       </c>
-      <c r="O47" s="63">
+      <c r="O47" s="50">
         <v>23</v>
       </c>
-      <c r="P47" s="19">
+      <c r="P47" s="13">
         <v>1</v>
       </c>
-      <c r="Q47" s="19">
+      <c r="Q47" s="13">
         <v>39</v>
       </c>
-      <c r="R47" s="63">
+      <c r="R47" s="50">
         <v>14</v>
       </c>
-      <c r="S47" s="22">
+      <c r="S47" s="6">
         <v>27.5</v>
       </c>
     </row>
     <row r="48" spans="11:19">
-      <c r="K48" s="49"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59" t="s">
+      <c r="K48" s="38"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="2">
-        <v>25</v>
-      </c>
-      <c r="O48" s="2" t="s">
+      <c r="N48" s="1">
+        <v>25</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="2">
-        <v>25</v>
-      </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P48" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="12">
+      <c r="R48" s="11">
         <v>47</v>
       </c>
-      <c r="S48" s="64" t="s">
+      <c r="S48" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="11:19">
-      <c r="K49" s="49"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59" t="s">
+      <c r="K49" s="38"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1">
         <v>2</v>
       </c>
-      <c r="S49" s="22">
+      <c r="S49" s="6">
         <v>57.9</v>
       </c>
     </row>
     <row r="50" spans="11:19">
-      <c r="K50" s="49"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59" t="s">
+      <c r="K50" s="38"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="8">
         <v>72</v>
       </c>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18">
+      <c r="O50" s="8"/>
+      <c r="P50" s="8">
         <v>74</v>
       </c>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="65">
+      <c r="Q50" s="8"/>
+      <c r="R50" s="52">
         <v>37</v>
       </c>
-      <c r="S50" s="21"/>
+      <c r="S50" s="9"/>
     </row>
     <row r="51" spans="11:19">
-      <c r="K51" s="49"/>
-      <c r="L51" s="59" t="s">
+      <c r="K51" s="38"/>
+      <c r="L51" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M51" s="59" t="s">
+      <c r="M51" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N51" s="61">
+      <c r="N51" s="48">
         <v>29</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O51" s="3">
         <v>2</v>
       </c>
-      <c r="P51" s="15">
+      <c r="P51" s="3">
         <v>11</v>
       </c>
-      <c r="Q51" s="61" t="s">
+      <c r="Q51" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R51" s="15">
+      <c r="R51" s="3">
         <v>28</v>
       </c>
-      <c r="S51" s="20">
+      <c r="S51" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="52" spans="11:19">
-      <c r="K52" s="49"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="59" t="s">
+      <c r="K52" s="38"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N52" s="13">
         <v>20</v>
       </c>
-      <c r="O52" s="19" t="s">
+      <c r="O52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="19">
+      <c r="P52" s="13">
         <v>20</v>
       </c>
-      <c r="Q52" s="19" t="s">
+      <c r="Q52" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="63">
+      <c r="R52" s="50">
         <v>38</v>
       </c>
-      <c r="S52" s="64" t="s">
+      <c r="S52" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="11:19">
-      <c r="K53" s="49"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59" t="s">
+      <c r="K53" s="38"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="22"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="6"/>
     </row>
     <row r="54" spans="11:19">
-      <c r="K54" s="51"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="59" t="s">
+      <c r="K54" s="40"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54" s="8">
         <v>51</v>
       </c>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18">
+      <c r="O54" s="8"/>
+      <c r="P54" s="8">
         <v>69</v>
       </c>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="65">
+      <c r="Q54" s="8"/>
+      <c r="R54" s="52">
         <v>34</v>
       </c>
-      <c r="S54" s="21"/>
+      <c r="S54" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2856,7 +2823,7 @@
   <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A15" sqref="A15:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6"/>
@@ -2892,42 +2859,42 @@
         <v>19</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2" t="s">
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1"/>
@@ -2955,88 +2922,88 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="AA2" s="2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="AA2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>29</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>8.5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>3</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>37</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>9.9</v>
       </c>
       <c r="K3" s="1"/>
@@ -3049,64 +3016,64 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="AA3" s="14" t="s">
+      <c r="AA3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="15">
+      <c r="AB3" s="3">
         <v>2</v>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="2">
         <v>5</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="20">
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="10">
         <v>20</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="2">
         <v>23</v>
       </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="20">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="10">
         <v>2</v>
       </c>
-      <c r="AI3" s="14">
+      <c r="AI3" s="2">
         <v>5</v>
       </c>
-      <c r="AJ3" s="23">
+      <c r="AJ3" s="14">
         <v>20</v>
       </c>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="15">
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="3">
         <v>24</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AM3" s="3">
         <v>1</v>
       </c>
-      <c r="AN3" s="20"/>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="6">
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5">
         <v>60</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>1.3</v>
       </c>
       <c r="I4" s="1">
         <v>60</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>47.2</v>
       </c>
       <c r="K4" s="1"/>
@@ -3119,62 +3086,62 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="2">
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="1">
         <v>3</v>
       </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF4" s="16">
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="5">
         <v>4</v>
       </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="22">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="6">
         <v>21</v>
       </c>
-      <c r="AI4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="24">
-        <v>25</v>
-      </c>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="2">
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>25</v>
+      </c>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="1">
         <v>10</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="1">
         <v>14</v>
       </c>
-      <c r="AN4" s="22">
+      <c r="AN4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>95</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="7">
         <v>71</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8">
-        <v>32</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9">
+      <c r="F5" s="9"/>
+      <c r="G5" s="7">
+        <v>37</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8">
         <v>3</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="N5" s="1"/>
@@ -3185,70 +3152,70 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="2">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="1">
         <v>4</v>
       </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF5" s="16">
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF5" s="5">
         <v>1</v>
       </c>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="22">
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="6">
         <v>24</v>
       </c>
-      <c r="AI5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="24">
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
         <v>24</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="6">
         <v>1</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="1">
         <v>2</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="1">
         <v>22</v>
       </c>
-      <c r="AN5" s="22">
+      <c r="AN5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>13</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>29</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>12</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="4">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="3">
         <v>37</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>10.6</v>
       </c>
       <c r="K6" s="1"/>
@@ -3261,66 +3228,66 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="2">
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="1">
         <v>5</v>
       </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF6" s="16">
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF6" s="5">
         <v>1</v>
       </c>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="22">
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="6">
         <v>24</v>
       </c>
-      <c r="AI6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="24">
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
         <v>23</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="6">
         <v>2</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="1">
         <v>1</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="1">
         <v>23</v>
       </c>
-      <c r="AN6" s="22">
+      <c r="AN6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5">
         <v>63</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>1.2</v>
       </c>
       <c r="I7" s="1">
         <v>63</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>50</v>
       </c>
       <c r="K7" s="1"/>
@@ -3333,66 +3300,66 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="18" t="s">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC7" s="17">
+      <c r="AC7" s="7">
         <v>5</v>
       </c>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="21">
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9">
         <v>95</v>
       </c>
-      <c r="AF7" s="17">
+      <c r="AF7" s="7">
         <v>29</v>
       </c>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="21">
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="9">
         <v>71</v>
       </c>
-      <c r="AI7" s="17">
+      <c r="AI7" s="7">
         <v>5</v>
       </c>
-      <c r="AJ7" s="25">
+      <c r="AJ7" s="16">
         <v>92</v>
       </c>
-      <c r="AK7" s="21">
+      <c r="AK7" s="9">
         <v>3</v>
       </c>
-      <c r="AL7" s="18">
+      <c r="AL7" s="8">
         <v>37</v>
       </c>
-      <c r="AM7" s="18">
+      <c r="AM7" s="8">
         <v>60</v>
       </c>
-      <c r="AN7" s="21">
+      <c r="AN7" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>89</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7">
         <v>71</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8">
+      <c r="F8" s="9"/>
+      <c r="G8" s="7">
         <v>37</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="N8" s="1"/>
@@ -3403,72 +3370,72 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="AA8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB8" s="15">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="AA8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="3">
         <v>2</v>
       </c>
-      <c r="AC8" s="14">
+      <c r="AC8" s="2">
         <v>10</v>
       </c>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="20">
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="10">
         <v>15</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="2">
         <v>18</v>
       </c>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="20">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="10">
         <v>7</v>
       </c>
-      <c r="AI8" s="26">
+      <c r="AI8" s="17">
         <v>1</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AJ8" s="18">
         <v>24</v>
       </c>
-      <c r="AK8" s="40"/>
-      <c r="AL8" s="15">
+      <c r="AK8" s="31"/>
+      <c r="AL8" s="3">
         <v>24</v>
       </c>
-      <c r="AM8" s="15">
+      <c r="AM8" s="3">
         <v>1</v>
       </c>
-      <c r="AN8" s="41"/>
+      <c r="AN8" s="32"/>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>18</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>24</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>30</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>9.3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>41</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>16.1</v>
       </c>
       <c r="K9" s="1"/>
@@ -3484,62 +3451,62 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="2">
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="1">
         <v>3</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="5">
         <v>1</v>
       </c>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="22">
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="6">
         <v>24</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AF9" s="5">
         <v>8</v>
       </c>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="22">
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="6">
         <v>17</v>
       </c>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="29">
-        <v>25</v>
-      </c>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="2">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="20">
+        <v>25</v>
+      </c>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="1">
         <v>10</v>
       </c>
-      <c r="AM9" s="2">
+      <c r="AM9" s="1">
         <v>15</v>
       </c>
-      <c r="AN9" s="43"/>
+      <c r="AN9" s="34"/>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" s="6"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>4</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>59</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>2.5</v>
       </c>
       <c r="I10" s="1">
         <v>59</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>45.8</v>
       </c>
       <c r="K10" s="1"/>
@@ -3555,58 +3522,58 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="2">
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="1">
         <v>4</v>
       </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF10" s="16">
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="5">
         <v>3</v>
       </c>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="22">
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="6">
         <v>22</v>
       </c>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="29">
-        <v>25</v>
-      </c>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="2">
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="20">
+        <v>25</v>
+      </c>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="1">
         <v>3</v>
       </c>
-      <c r="AM10" s="2">
+      <c r="AM10" s="1">
         <v>22</v>
       </c>
-      <c r="AN10" s="43"/>
+      <c r="AN10" s="34"/>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>82</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8">
+      <c r="D11" s="9"/>
+      <c r="E11" s="7">
         <v>69</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8">
+      <c r="F11" s="9"/>
+      <c r="G11" s="7">
         <v>39</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -3620,126 +3587,126 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="2">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="1">
         <v>5</v>
       </c>
-      <c r="AC11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="29">
-        <v>25</v>
-      </c>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>25</v>
-      </c>
-      <c r="AN11" s="22"/>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="20">
+        <v>25</v>
+      </c>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN11" s="6"/>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>82</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>8.7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>100</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>2.2</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>28</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>5.9</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>18.5</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="18" t="s">
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="17">
+      <c r="AC12" s="7">
         <v>11</v>
       </c>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="21">
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="9">
         <v>89</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="7">
         <v>29</v>
       </c>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="21">
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="9">
         <v>71</v>
       </c>
-      <c r="AI12" s="30">
+      <c r="AI12" s="21">
         <v>1</v>
       </c>
-      <c r="AJ12" s="31">
+      <c r="AJ12" s="22">
         <v>99</v>
       </c>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="18">
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="8">
         <v>37</v>
       </c>
-      <c r="AM12" s="18">
+      <c r="AM12" s="8">
         <v>63</v>
       </c>
-      <c r="AN12" s="21">
+      <c r="AN12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3753,62 +3720,62 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
-      <c r="AA13" s="14" t="s">
+      <c r="AA13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AB13" s="3">
         <v>2</v>
       </c>
-      <c r="AC13" s="14">
+      <c r="AC13" s="2">
         <v>14</v>
       </c>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="20">
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="10">
         <v>11</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="2">
         <v>23</v>
       </c>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="20">
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="10">
         <v>2</v>
       </c>
-      <c r="AI13" s="14">
+      <c r="AI13" s="2">
         <v>2</v>
       </c>
-      <c r="AJ13" s="23">
+      <c r="AJ13" s="14">
         <v>23</v>
       </c>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="15">
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="3">
         <v>22</v>
       </c>
-      <c r="AM13" s="15">
+      <c r="AM13" s="3">
         <v>3</v>
       </c>
-      <c r="AN13" s="41"/>
+      <c r="AN13" s="32"/>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>18</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8">
+      <c r="D14" s="9"/>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7">
         <v>72</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3822,70 +3789,70 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="19">
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="13">
         <v>3</v>
       </c>
-      <c r="AC14" s="16">
+      <c r="AC14" s="5">
         <v>4</v>
       </c>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="22">
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="6">
         <v>21</v>
       </c>
-      <c r="AF14" s="16">
+      <c r="AF14" s="5">
         <v>6</v>
       </c>
-      <c r="AG14" s="19">
+      <c r="AG14" s="13">
         <v>1</v>
       </c>
-      <c r="AH14" s="22">
+      <c r="AH14" s="6">
         <v>18</v>
       </c>
-      <c r="AI14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="32">
-        <v>25</v>
-      </c>
-      <c r="AK14" s="22"/>
-      <c r="AL14" s="19">
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="23">
+        <v>25</v>
+      </c>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="13">
         <v>15</v>
       </c>
-      <c r="AM14" s="19">
+      <c r="AM14" s="13">
         <v>10</v>
       </c>
-      <c r="AN14" s="43"/>
+      <c r="AN14" s="34"/>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>60</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>9.3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>17</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>7.8</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>3</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>0.3</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>16</v>
       </c>
       <c r="K15" s="1"/>
@@ -3901,60 +3868,60 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="19">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="13">
         <v>4</v>
       </c>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF15" s="16">
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF15" s="5">
         <v>1</v>
       </c>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="22">
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="6">
         <v>24</v>
       </c>
-      <c r="AI15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="32">
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="23">
         <v>24</v>
       </c>
-      <c r="AK15" s="22">
+      <c r="AK15" s="6">
         <v>1</v>
       </c>
-      <c r="AL15" s="19">
+      <c r="AL15" s="13">
         <v>3</v>
       </c>
-      <c r="AM15" s="19">
+      <c r="AM15" s="13">
         <v>22</v>
       </c>
-      <c r="AN15" s="43"/>
+      <c r="AN15" s="34"/>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7"/>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3968,128 +3935,128 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="19">
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="13">
         <v>5</v>
       </c>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI16" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="32">
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="23">
         <v>21</v>
       </c>
-      <c r="AK16" s="22">
+      <c r="AK16" s="6">
         <v>4</v>
       </c>
-      <c r="AL16" s="19">
+      <c r="AL16" s="13">
         <v>1</v>
       </c>
-      <c r="AM16" s="19">
+      <c r="AM16" s="13">
         <v>24</v>
       </c>
-      <c r="AN16" s="43"/>
+      <c r="AN16" s="34"/>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="8">
+      <c r="D17" s="9"/>
+      <c r="E17" s="7">
         <v>83</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="8">
+      <c r="F17" s="9"/>
+      <c r="G17" s="7">
         <v>97</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="19" t="s">
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AC17" s="16">
+      <c r="AC17" s="5">
         <v>18</v>
       </c>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="22">
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="6">
         <v>82</v>
       </c>
-      <c r="AF17" s="16">
+      <c r="AF17" s="5">
         <v>30</v>
       </c>
-      <c r="AG17" s="19">
+      <c r="AG17" s="13">
         <v>1</v>
       </c>
-      <c r="AH17" s="22">
+      <c r="AH17" s="6">
         <v>69</v>
       </c>
-      <c r="AI17" s="16">
+      <c r="AI17" s="5">
         <v>2</v>
       </c>
-      <c r="AJ17" s="32">
+      <c r="AJ17" s="23">
         <v>93</v>
       </c>
-      <c r="AK17" s="22">
+      <c r="AK17" s="6">
         <v>5</v>
       </c>
-      <c r="AL17" s="19">
+      <c r="AL17" s="13">
         <v>41</v>
       </c>
-      <c r="AM17" s="19">
+      <c r="AM17" s="13">
         <v>59</v>
       </c>
-      <c r="AN17" s="22">
+      <c r="AN17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>68</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>5.5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>27</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>13</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>24</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>9</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>15.7</v>
       </c>
       <c r="K18" s="1"/>
@@ -4105,51 +4072,50 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="14" t="s">
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="15" t="s">
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AJ18" s="15"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="14" t="s">
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AM18" s="15"/>
-      <c r="AN18" s="20"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="10"/>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" s="6"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7"/>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="1">
         <v>0</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4163,71 +4129,71 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="2"/>
-      <c r="AA19" s="17" t="s">
+      <c r="X19" s="1"/>
+      <c r="AA19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AB19" s="21" t="s">
+      <c r="AB19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC19" s="18" t="s">
+      <c r="AC19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AD19" s="18" t="s">
+      <c r="AD19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AE19" s="18" t="s">
+      <c r="AE19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AF19" s="17" t="s">
+      <c r="AF19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AG19" s="18" t="s">
+      <c r="AG19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AH19" s="21" t="s">
+      <c r="AH19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AI19" s="18" t="s">
+      <c r="AI19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AJ19" s="18" t="s">
+      <c r="AJ19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AK19" s="18" t="s">
+      <c r="AK19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AL19" s="17" t="s">
+      <c r="AL19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AM19" s="18" t="s">
+      <c r="AM19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AN19" s="21" t="s">
+      <c r="AN19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>32</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8">
+      <c r="D20" s="9"/>
+      <c r="E20" s="7">
         <v>73</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8">
+      <c r="F20" s="9"/>
+      <c r="G20" s="7">
         <v>76</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4241,33 +4207,33 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="2"/>
-      <c r="AA20" s="16" t="s">
+      <c r="X20" s="1"/>
+      <c r="AA20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="13">
         <v>2</v>
       </c>
-      <c r="AC20" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ20" s="15"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM20" s="19"/>
-      <c r="AN20" s="22"/>
+      <c r="AC20" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="2">
+        <v>25</v>
+      </c>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM20" s="13"/>
+      <c r="AN20" s="6"/>
     </row>
     <row r="21" spans="11:40">
       <c r="K21" s="1"/>
@@ -4283,35 +4249,65 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="2"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="2">
+      <c r="X21" s="1"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="1">
         <v>3</v>
       </c>
-      <c r="AC21" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="16">
+      <c r="AC21" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="5">
         <v>2</v>
       </c>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="22">
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="6">
         <v>23</v>
       </c>
-      <c r="AL21" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM21" s="2"/>
-      <c r="AN21" s="22"/>
-    </row>
-    <row r="22" spans="11:40">
+      <c r="AL21" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="6"/>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>34</v>
+      </c>
+      <c r="D22" s="4">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2">
+        <v>88</v>
+      </c>
+      <c r="F22" s="10">
+        <v>12.7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <v>115</v>
+      </c>
+      <c r="J22" s="10">
+        <v>12.3</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4325,37 +4321,63 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="2"/>
-      <c r="AA22" s="16"/>
-      <c r="AB22" s="2">
+      <c r="X22" s="1"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="1">
         <v>4</v>
       </c>
-      <c r="AC22" s="16">
+      <c r="AC22" s="5">
         <v>23</v>
       </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="22">
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="6">
         <v>2</v>
       </c>
-      <c r="AF22" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG22" s="2"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="16">
+      <c r="AF22" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="5">
         <v>1</v>
       </c>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="22">
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="6">
         <v>24</v>
       </c>
-      <c r="AL22" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM22" s="2"/>
-      <c r="AN22" s="22"/>
-    </row>
-    <row r="23" spans="11:40">
+      <c r="AL22" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="6"/>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>182</v>
+      </c>
+      <c r="H23" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>182</v>
+      </c>
+      <c r="J23" s="6">
+        <v>47.7</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -4369,70 +4391,120 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="2"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="2">
+      <c r="X23" s="1"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="1">
         <v>5</v>
       </c>
-      <c r="AC23" s="16">
+      <c r="AC23" s="5">
         <v>9</v>
       </c>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="22">
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="6">
         <v>16</v>
       </c>
-      <c r="AF23" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM23" s="2"/>
-      <c r="AN23" s="22"/>
-    </row>
-    <row r="24" spans="24:40">
-      <c r="X24" s="2"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="18" t="s">
+      <c r="AF23" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="6"/>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7">
+        <v>266</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7">
+        <v>211</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7">
+        <v>113</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="X24" s="1"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC24" s="17">
+      <c r="AC24" s="7">
         <v>82</v>
       </c>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="21">
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="9">
         <v>18</v>
       </c>
-      <c r="AF24" s="17">
+      <c r="AF24" s="7">
         <v>100</v>
       </c>
-      <c r="AG24" s="18"/>
-      <c r="AH24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="17">
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="7">
         <v>28</v>
       </c>
-      <c r="AJ24" s="18"/>
-      <c r="AK24" s="21">
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="9">
         <v>72</v>
       </c>
-      <c r="AL24" s="18">
+      <c r="AL24" s="8">
         <v>100</v>
       </c>
-      <c r="AM24" s="18"/>
-      <c r="AN24" s="21"/>
-    </row>
-    <row r="25" spans="11:40">
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="9"/>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>210</v>
+      </c>
+      <c r="D25" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>144</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="G25" s="2">
+        <v>55</v>
+      </c>
+      <c r="H25" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="I25" s="3">
+        <v>300</v>
+      </c>
+      <c r="J25" s="10">
+        <v>16.7</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -4446,39 +4518,59 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="2"/>
-      <c r="AA25" s="14" t="s">
+      <c r="X25" s="1"/>
+      <c r="AA25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="3">
         <v>2</v>
       </c>
-      <c r="AC25" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="14">
+      <c r="AC25" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="2">
         <v>15</v>
       </c>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="20">
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="10">
         <v>10</v>
       </c>
-      <c r="AI25" s="14">
+      <c r="AI25" s="2">
         <v>3</v>
       </c>
-      <c r="AJ25" s="23">
+      <c r="AJ25" s="14">
         <v>22</v>
       </c>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="15">
-        <v>25</v>
-      </c>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="41"/>
-    </row>
-    <row r="26" spans="11:40">
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="3">
+        <v>25</v>
+      </c>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="32"/>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -4492,41 +4584,61 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="2"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="2">
+      <c r="X26" s="1"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="1">
         <v>3</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AC26" s="5">
         <v>23</v>
       </c>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="22">
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="6">
         <v>2</v>
       </c>
-      <c r="AF26" s="16">
+      <c r="AF26" s="5">
         <v>1</v>
       </c>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="22">
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="6">
         <v>24</v>
       </c>
-      <c r="AI26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="24">
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="15">
         <v>24</v>
       </c>
-      <c r="AK26" s="22">
+      <c r="AK26" s="6">
         <v>1</v>
       </c>
-      <c r="AL26" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="43"/>
-    </row>
-    <row r="27" spans="11:40">
+      <c r="AL26" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="34"/>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7">
+        <v>90</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7">
+        <v>156</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7">
+        <v>245</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -4540,39 +4652,39 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="2"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="2">
+      <c r="X27" s="1"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="1">
         <v>4</v>
       </c>
-      <c r="AC27" s="16">
+      <c r="AC27" s="5">
         <v>9</v>
       </c>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="22">
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="6">
         <v>16</v>
       </c>
-      <c r="AF27" s="16">
+      <c r="AF27" s="5">
         <v>1</v>
       </c>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="22">
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="6">
         <v>24</v>
       </c>
-      <c r="AI27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="24">
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="15">
         <v>22</v>
       </c>
-      <c r="AK27" s="22">
+      <c r="AK27" s="6">
         <v>3</v>
       </c>
-      <c r="AL27" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="43"/>
+      <c r="AL27" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="34"/>
     </row>
     <row r="28" spans="11:40">
       <c r="K28" s="1"/>
@@ -4588,39 +4700,39 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="2"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="2">
+      <c r="X28" s="1"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="1">
         <v>5</v>
       </c>
-      <c r="AC28" s="16">
+      <c r="AC28" s="5">
         <v>3</v>
       </c>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="22">
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="6">
         <v>22</v>
       </c>
-      <c r="AF28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="24">
+      <c r="AF28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="15">
         <v>24</v>
       </c>
-      <c r="AK28" s="22">
+      <c r="AK28" s="6">
         <v>1</v>
       </c>
-      <c r="AL28" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="22"/>
+      <c r="AL28" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="6"/>
     </row>
     <row r="29" spans="11:40">
       <c r="K29" s="1"/>
@@ -4636,39 +4748,39 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="2"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="18" t="s">
+      <c r="X29" s="1"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC29" s="17">
+      <c r="AC29" s="7">
         <v>60</v>
       </c>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="21">
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="9">
         <v>40</v>
       </c>
-      <c r="AF29" s="17">
+      <c r="AF29" s="7">
         <v>17</v>
       </c>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="21">
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="9">
         <v>83</v>
       </c>
-      <c r="AI29" s="17">
+      <c r="AI29" s="7">
         <v>3</v>
       </c>
-      <c r="AJ29" s="25">
+      <c r="AJ29" s="16">
         <v>92</v>
       </c>
-      <c r="AK29" s="21">
+      <c r="AK29" s="9">
         <v>5</v>
       </c>
-      <c r="AL29" s="18">
+      <c r="AL29" s="8">
         <v>100</v>
       </c>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="21"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="9"/>
     </row>
     <row r="30" spans="2:40">
       <c r="B30" s="1"/>
@@ -4693,37 +4805,37 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="2"/>
-      <c r="AA30" s="14" t="s">
+      <c r="X30" s="1"/>
+      <c r="AA30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB30" s="15">
+      <c r="AB30" s="3">
         <v>2</v>
       </c>
-      <c r="AC30" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="14">
+      <c r="AC30" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="2">
         <v>19</v>
       </c>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="20">
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="10">
         <v>6</v>
       </c>
-      <c r="AI30" s="14">
+      <c r="AI30" s="2">
         <v>22</v>
       </c>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="20">
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="10">
         <v>3</v>
       </c>
-      <c r="AL30" s="15">
-        <v>25</v>
-      </c>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="41"/>
+      <c r="AL30" s="3">
+        <v>25</v>
+      </c>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="32"/>
     </row>
     <row r="31" spans="1:40">
       <c r="A31" s="1"/>
@@ -4749,35 +4861,35 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="2"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="19">
+      <c r="X31" s="1"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="13">
         <v>3</v>
       </c>
-      <c r="AC31" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="16">
+      <c r="AC31" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="5">
         <v>4</v>
       </c>
-      <c r="AG31" s="19"/>
-      <c r="AH31" s="22">
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="6">
         <v>21</v>
       </c>
-      <c r="AI31" s="16">
+      <c r="AI31" s="5">
         <v>2</v>
       </c>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="22">
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="6">
         <v>24</v>
       </c>
-      <c r="AL31" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM31" s="19"/>
-      <c r="AN31" s="43"/>
+      <c r="AL31" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="34"/>
     </row>
     <row r="32" spans="1:40">
       <c r="A32" s="1"/>
@@ -4803,37 +4915,37 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="2"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="19">
+      <c r="X32" s="1"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="13">
         <v>4</v>
       </c>
-      <c r="AC32" s="16">
+      <c r="AC32" s="5">
         <v>16</v>
       </c>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="22">
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="6">
         <v>9</v>
       </c>
-      <c r="AF32" s="16">
+      <c r="AF32" s="5">
         <v>4</v>
       </c>
-      <c r="AG32" s="19"/>
-      <c r="AH32" s="22">
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="6">
         <v>21</v>
       </c>
-      <c r="AI32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL32" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM32" s="19"/>
-      <c r="AN32" s="43"/>
+      <c r="AI32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL32" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="34"/>
     </row>
     <row r="33" spans="1:40">
       <c r="A33" s="1"/>
@@ -4859,1339 +4971,1339 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="2"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="19">
+      <c r="X33" s="1"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="13">
         <v>5</v>
       </c>
-      <c r="AC33" s="16">
+      <c r="AC33" s="5">
         <v>2</v>
       </c>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="22">
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="6">
         <v>23</v>
       </c>
-      <c r="AF33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI33" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL33" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM33" s="19"/>
-      <c r="AN33" s="43"/>
+      <c r="AF33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="34"/>
     </row>
     <row r="34" spans="1:40">
       <c r="A34" s="1"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="18" t="s">
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC34" s="17">
+      <c r="AC34" s="7">
         <v>68</v>
       </c>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="21">
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="9">
         <v>32</v>
       </c>
-      <c r="AF34" s="17">
+      <c r="AF34" s="7">
         <v>27</v>
       </c>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="21">
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="9">
         <v>73</v>
       </c>
-      <c r="AI34" s="17">
+      <c r="AI34" s="7">
         <v>24</v>
       </c>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="21">
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="9">
         <v>76</v>
       </c>
-      <c r="AL34" s="18">
+      <c r="AL34" s="8">
         <v>100</v>
       </c>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="21"/>
+      <c r="AM34" s="8"/>
+      <c r="AN34" s="9"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" spans="27:27">
       <c r="AA38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="27:40">
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2" t="s">
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2" t="s">
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2" t="s">
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
     </row>
     <row r="40" spans="27:40">
-      <c r="AA40" s="2" t="s">
+      <c r="AA40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AB40" s="2" t="s">
+      <c r="AB40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AC40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AD40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AE40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AF40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AG40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AH40" s="2" t="s">
+      <c r="AH40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AI40" s="2" t="s">
+      <c r="AI40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AJ40" s="2" t="s">
+      <c r="AJ40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AK40" s="2" t="s">
+      <c r="AK40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AL40" s="2" t="s">
+      <c r="AL40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AM40" s="2" t="s">
+      <c r="AM40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AN40" s="2" t="s">
+      <c r="AN40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="27:40">
-      <c r="AA41" s="14" t="s">
+      <c r="AA41" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB41" s="15">
+      <c r="AB41" s="3">
         <v>2</v>
       </c>
-      <c r="AC41" s="14">
+      <c r="AC41" s="2">
         <v>5</v>
       </c>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="20">
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="10">
         <v>20</v>
       </c>
-      <c r="AF41" s="14">
+      <c r="AF41" s="2">
         <v>23</v>
       </c>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="20">
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="10">
         <v>2</v>
       </c>
-      <c r="AI41" s="14">
+      <c r="AI41" s="2">
         <v>3</v>
       </c>
-      <c r="AJ41" s="33">
+      <c r="AJ41" s="24">
         <v>1</v>
       </c>
-      <c r="AK41" s="20">
+      <c r="AK41" s="10">
         <v>21</v>
       </c>
-      <c r="AL41" s="15">
+      <c r="AL41" s="3">
         <v>24</v>
       </c>
-      <c r="AM41" s="15">
+      <c r="AM41" s="3">
         <v>1</v>
       </c>
-      <c r="AN41" s="20">
+      <c r="AN41" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="27:40">
-      <c r="AA42" s="16"/>
-      <c r="AB42" s="2">
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="1">
         <v>3</v>
       </c>
-      <c r="AC42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF42" s="16">
+      <c r="AC42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF42" s="5">
         <v>4</v>
       </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="22">
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="6">
         <v>21</v>
       </c>
-      <c r="AI42" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="34">
+      <c r="AI42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="25">
         <v>14</v>
       </c>
-      <c r="AK42" s="22">
+      <c r="AK42" s="6">
         <v>11</v>
       </c>
-      <c r="AL42" s="2">
+      <c r="AL42" s="1">
         <v>10</v>
       </c>
-      <c r="AM42" s="2">
+      <c r="AM42" s="1">
         <v>14</v>
       </c>
-      <c r="AN42" s="22">
+      <c r="AN42" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="27:40">
-      <c r="AA43" s="16"/>
-      <c r="AB43" s="2">
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="1">
         <v>4</v>
       </c>
-      <c r="AC43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF43" s="16">
+      <c r="AC43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF43" s="5">
         <v>1</v>
       </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="22">
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="6">
         <v>24</v>
       </c>
-      <c r="AI43" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="34">
+      <c r="AI43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="25">
         <v>22</v>
       </c>
-      <c r="AK43" s="22">
+      <c r="AK43" s="6">
         <v>3</v>
       </c>
-      <c r="AL43" s="2">
+      <c r="AL43" s="1">
         <v>2</v>
       </c>
-      <c r="AM43" s="2">
+      <c r="AM43" s="1">
         <v>22</v>
       </c>
-      <c r="AN43" s="22">
+      <c r="AN43" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="27:40">
-      <c r="AA44" s="16"/>
-      <c r="AB44" s="2">
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="1">
         <v>5</v>
       </c>
-      <c r="AC44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF44" s="16">
+      <c r="AC44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF44" s="5">
         <v>1</v>
       </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="22">
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="6">
         <v>24</v>
       </c>
-      <c r="AI44" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="34">
+      <c r="AI44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="25">
         <v>23</v>
       </c>
-      <c r="AK44" s="22">
+      <c r="AK44" s="6">
         <v>2</v>
       </c>
-      <c r="AL44" s="2">
+      <c r="AL44" s="1">
         <v>1</v>
       </c>
-      <c r="AM44" s="2">
+      <c r="AM44" s="1">
         <v>23</v>
       </c>
-      <c r="AN44" s="22">
+      <c r="AN44" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="27:40">
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="18" t="s">
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC45" s="17">
+      <c r="AC45" s="7">
         <v>5</v>
       </c>
-      <c r="AD45" s="18"/>
-      <c r="AE45" s="21">
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="9">
         <v>95</v>
       </c>
-      <c r="AF45" s="17">
+      <c r="AF45" s="7">
         <v>29</v>
       </c>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="21">
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="9">
         <v>71</v>
       </c>
-      <c r="AI45" s="17">
+      <c r="AI45" s="7">
         <v>5</v>
       </c>
-      <c r="AJ45" s="35">
+      <c r="AJ45" s="26">
         <v>60</v>
       </c>
-      <c r="AK45" s="21">
+      <c r="AK45" s="9">
         <v>32</v>
       </c>
-      <c r="AL45" s="18">
+      <c r="AL45" s="8">
         <v>37</v>
       </c>
-      <c r="AM45" s="18">
+      <c r="AM45" s="8">
         <v>60</v>
       </c>
-      <c r="AN45" s="21">
+      <c r="AN45" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="27:40">
-      <c r="AA46" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB46" s="15">
+      <c r="AA46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB46" s="3">
         <v>2</v>
       </c>
-      <c r="AC46" s="14">
+      <c r="AC46" s="2">
         <v>10</v>
       </c>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="20">
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="10">
         <v>15</v>
       </c>
-      <c r="AF46" s="14">
+      <c r="AF46" s="2">
         <v>18</v>
       </c>
-      <c r="AG46" s="15"/>
-      <c r="AH46" s="20">
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="10">
         <v>7</v>
       </c>
-      <c r="AI46" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="36">
+      <c r="AI46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="27">
         <v>1</v>
       </c>
-      <c r="AK46" s="40">
+      <c r="AK46" s="31">
         <v>24</v>
       </c>
-      <c r="AL46" s="15">
+      <c r="AL46" s="3">
         <v>24</v>
       </c>
-      <c r="AM46" s="15">
+      <c r="AM46" s="3">
         <v>1</v>
       </c>
-      <c r="AN46" s="45"/>
+      <c r="AN46" s="10"/>
     </row>
     <row r="47" spans="27:40">
-      <c r="AA47" s="16"/>
-      <c r="AB47" s="2">
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="1">
         <v>3</v>
       </c>
-      <c r="AC47" s="16">
+      <c r="AC47" s="5">
         <v>1</v>
       </c>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="22">
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="6">
         <v>24</v>
       </c>
-      <c r="AF47" s="16">
+      <c r="AF47" s="5">
         <v>8</v>
       </c>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="22">
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="6">
         <v>17</v>
       </c>
-      <c r="AI47" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="37">
+      <c r="AI47" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="28">
         <v>15</v>
       </c>
-      <c r="AK47" s="42">
+      <c r="AK47" s="33">
         <v>10</v>
       </c>
-      <c r="AL47" s="2">
+      <c r="AL47" s="1">
         <v>10</v>
       </c>
-      <c r="AM47" s="2">
+      <c r="AM47" s="1">
         <v>15</v>
       </c>
-      <c r="AN47" s="46"/>
+      <c r="AN47" s="6"/>
     </row>
     <row r="48" spans="27:40">
-      <c r="AA48" s="16"/>
-      <c r="AB48" s="2">
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="1">
         <v>4</v>
       </c>
-      <c r="AC48" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF48" s="16">
+      <c r="AC48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF48" s="5">
         <v>3</v>
       </c>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="22">
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="6">
         <v>22</v>
       </c>
-      <c r="AI48" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="37">
+      <c r="AI48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="28">
         <v>22</v>
       </c>
-      <c r="AK48" s="42">
+      <c r="AK48" s="33">
         <v>3</v>
       </c>
-      <c r="AL48" s="2">
+      <c r="AL48" s="1">
         <v>3</v>
       </c>
-      <c r="AM48" s="2">
+      <c r="AM48" s="1">
         <v>22</v>
       </c>
-      <c r="AN48" s="46"/>
+      <c r="AN48" s="6"/>
     </row>
     <row r="49" spans="27:40">
-      <c r="AA49" s="16"/>
-      <c r="AB49" s="2">
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="1">
         <v>5</v>
       </c>
-      <c r="AC49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF49" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI49" s="28">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="37">
-        <v>25</v>
-      </c>
-      <c r="AK49" s="42">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM49" s="2">
-        <v>25</v>
-      </c>
-      <c r="AN49" s="22"/>
+      <c r="AC49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="1"/>
+      <c r="AH49" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="28">
+        <v>25</v>
+      </c>
+      <c r="AK49" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>25</v>
+      </c>
+      <c r="AN49" s="6"/>
     </row>
     <row r="50" spans="27:40">
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="18" t="s">
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AC50" s="17">
+      <c r="AC50" s="7">
         <v>11</v>
       </c>
-      <c r="AD50" s="18"/>
-      <c r="AE50" s="21">
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="9">
         <v>89</v>
       </c>
-      <c r="AF50" s="17">
+      <c r="AF50" s="7">
         <v>29</v>
       </c>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="21">
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="9">
         <v>71</v>
       </c>
-      <c r="AI50" s="30">
+      <c r="AI50" s="21">
         <v>10</v>
       </c>
-      <c r="AJ50" s="38">
+      <c r="AJ50" s="29">
         <v>63</v>
       </c>
-      <c r="AK50" s="44">
+      <c r="AK50" s="35">
         <v>37</v>
       </c>
-      <c r="AL50" s="18">
+      <c r="AL50" s="8">
         <v>37</v>
       </c>
-      <c r="AM50" s="18">
+      <c r="AM50" s="8">
         <v>63</v>
       </c>
-      <c r="AN50" s="21"/>
+      <c r="AN50" s="9"/>
     </row>
     <row r="51" spans="27:40">
-      <c r="AA51" s="14" t="s">
+      <c r="AA51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB51" s="15">
+      <c r="AB51" s="3">
         <v>2</v>
       </c>
-      <c r="AC51" s="14">
+      <c r="AC51" s="2">
         <v>14</v>
       </c>
-      <c r="AD51" s="15"/>
-      <c r="AE51" s="20">
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="10">
         <v>11</v>
       </c>
-      <c r="AF51" s="14">
+      <c r="AF51" s="2">
         <v>23</v>
       </c>
-      <c r="AG51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="20">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="10">
         <v>2</v>
       </c>
-      <c r="AI51" s="14">
+      <c r="AI51" s="2">
         <v>2</v>
       </c>
-      <c r="AJ51" s="33">
+      <c r="AJ51" s="24">
         <v>3</v>
       </c>
-      <c r="AK51" s="20">
+      <c r="AK51" s="10">
         <v>20</v>
       </c>
-      <c r="AL51" s="15">
+      <c r="AL51" s="3">
         <v>22</v>
       </c>
-      <c r="AM51" s="15">
+      <c r="AM51" s="3">
         <v>3</v>
       </c>
-      <c r="AN51" s="45"/>
+      <c r="AN51" s="10"/>
     </row>
     <row r="52" spans="27:40">
-      <c r="AA52" s="16"/>
-      <c r="AB52" s="19">
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="13">
         <v>3</v>
       </c>
-      <c r="AC52" s="16">
+      <c r="AC52" s="5">
         <v>4</v>
       </c>
-      <c r="AD52" s="19"/>
-      <c r="AE52" s="22">
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="6">
         <v>21</v>
       </c>
-      <c r="AF52" s="16">
+      <c r="AF52" s="5">
         <v>6</v>
       </c>
-      <c r="AG52" s="19">
+      <c r="AG52" s="13">
         <v>1</v>
       </c>
-      <c r="AH52" s="22">
+      <c r="AH52" s="6">
         <v>18</v>
       </c>
-      <c r="AI52" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="39">
+      <c r="AI52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="30">
         <v>10</v>
       </c>
-      <c r="AK52" s="22">
+      <c r="AK52" s="6">
         <v>15</v>
       </c>
-      <c r="AL52" s="19">
+      <c r="AL52" s="13">
         <v>15</v>
       </c>
-      <c r="AM52" s="19">
+      <c r="AM52" s="13">
         <v>10</v>
       </c>
-      <c r="AN52" s="46"/>
+      <c r="AN52" s="6"/>
     </row>
     <row r="53" spans="27:40">
-      <c r="AA53" s="16"/>
-      <c r="AB53" s="19">
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="13">
         <v>4</v>
       </c>
-      <c r="AC53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF53" s="16">
+      <c r="AC53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF53" s="5">
         <v>1</v>
       </c>
-      <c r="AG53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="22">
+      <c r="AG53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="6">
         <v>24</v>
       </c>
-      <c r="AI53" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="39">
+      <c r="AI53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="30">
         <v>22</v>
       </c>
-      <c r="AK53" s="22">
+      <c r="AK53" s="6">
         <v>3</v>
       </c>
-      <c r="AL53" s="19">
+      <c r="AL53" s="13">
         <v>3</v>
       </c>
-      <c r="AM53" s="19">
+      <c r="AM53" s="13">
         <v>22</v>
       </c>
-      <c r="AN53" s="46"/>
+      <c r="AN53" s="6"/>
     </row>
     <row r="54" spans="27:40">
-      <c r="AA54" s="16"/>
-      <c r="AB54" s="19">
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="13">
         <v>5</v>
       </c>
-      <c r="AC54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="22">
-        <v>25</v>
-      </c>
-      <c r="AF54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI54" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="39">
+      <c r="AC54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="6">
+        <v>25</v>
+      </c>
+      <c r="AF54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI54" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="30">
         <v>24</v>
       </c>
-      <c r="AK54" s="22">
+      <c r="AK54" s="6">
         <v>1</v>
       </c>
-      <c r="AL54" s="19">
+      <c r="AL54" s="13">
         <v>1</v>
       </c>
-      <c r="AM54" s="19">
+      <c r="AM54" s="13">
         <v>24</v>
       </c>
-      <c r="AN54" s="46"/>
+      <c r="AN54" s="6"/>
     </row>
     <row r="55" spans="27:40">
-      <c r="AA55" s="16"/>
-      <c r="AB55" s="19" t="s">
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AC55" s="16">
+      <c r="AC55" s="5">
         <v>18</v>
       </c>
-      <c r="AD55" s="19"/>
-      <c r="AE55" s="22">
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="6">
         <v>82</v>
       </c>
-      <c r="AF55" s="16">
+      <c r="AF55" s="5">
         <v>30</v>
       </c>
-      <c r="AG55" s="19">
+      <c r="AG55" s="13">
         <v>1</v>
       </c>
-      <c r="AH55" s="22">
+      <c r="AH55" s="6">
         <v>69</v>
       </c>
-      <c r="AI55" s="16">
+      <c r="AI55" s="5">
         <v>2</v>
       </c>
-      <c r="AJ55" s="39">
+      <c r="AJ55" s="30">
         <v>59</v>
       </c>
-      <c r="AK55" s="22">
+      <c r="AK55" s="6">
         <v>39</v>
       </c>
-      <c r="AL55" s="19">
+      <c r="AL55" s="13">
         <v>41</v>
       </c>
-      <c r="AM55" s="19">
+      <c r="AM55" s="13">
         <v>59</v>
       </c>
-      <c r="AN55" s="22"/>
+      <c r="AN55" s="6"/>
     </row>
     <row r="56" spans="27:41">
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="20"/>
-      <c r="AC56" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="15"/>
-      <c r="AF56" s="14" t="s">
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AG56" s="15"/>
-      <c r="AH56" s="20"/>
-      <c r="AI56" s="15" t="s">
+      <c r="AG56" s="3"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AJ56" s="15"/>
-      <c r="AK56" s="15"/>
-      <c r="AL56" s="14" t="s">
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AM56" s="15"/>
-      <c r="AN56" s="20"/>
+      <c r="AM56" s="3"/>
+      <c r="AN56" s="10"/>
       <c r="AO56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="27:41">
+      <c r="AA57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO57" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="27:41">
+      <c r="AA58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB58" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG58" s="13"/>
+      <c r="AH58" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>25</v>
+      </c>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM58" s="13"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="1"/>
+    </row>
+    <row r="59" spans="27:41">
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="6">
+        <v>23</v>
+      </c>
+      <c r="AL59" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="6"/>
+      <c r="AO59" s="1"/>
+    </row>
+    <row r="60" spans="27:41">
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>23</v>
+      </c>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF60" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="6">
+        <v>24</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="6"/>
+      <c r="AO60" s="1"/>
+    </row>
+    <row r="61" spans="27:41">
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>9</v>
+      </c>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="6">
+        <v>16</v>
+      </c>
+      <c r="AF61" s="5">
+        <v>25</v>
+      </c>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL61" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="6"/>
+      <c r="AO61" s="1"/>
+    </row>
+    <row r="62" spans="27:41">
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC62" s="7">
+        <v>82</v>
+      </c>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="9">
+        <v>18</v>
+      </c>
+      <c r="AF62" s="7">
+        <v>100</v>
+      </c>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="7">
+        <v>28</v>
+      </c>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="9">
+        <v>72</v>
+      </c>
+      <c r="AL62" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM62" s="8"/>
+      <c r="AN62" s="9"/>
+      <c r="AO62" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="27:41">
+      <c r="AA63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG63" s="3"/>
+      <c r="AH63" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="10">
+        <v>22</v>
+      </c>
+      <c r="AL63" s="3">
+        <v>25</v>
+      </c>
+      <c r="AM63" s="3"/>
+      <c r="AN63" s="32"/>
+      <c r="AO63" s="1"/>
+    </row>
+    <row r="64" spans="27:41">
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>23</v>
+      </c>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF64" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="6">
+        <v>24</v>
+      </c>
+      <c r="AI64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL64" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="34"/>
+      <c r="AO64" s="1"/>
+    </row>
+    <row r="65" spans="27:41">
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC65" s="5">
+        <v>9</v>
+      </c>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="6">
+        <v>16</v>
+      </c>
+      <c r="AF65" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="6">
+        <v>24</v>
+      </c>
+      <c r="AI65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="25"/>
+      <c r="AK65" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL65" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="34"/>
+      <c r="AO65" s="1"/>
+    </row>
+    <row r="66" spans="27:41">
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="5">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="6">
+        <v>22</v>
+      </c>
+      <c r="AF66" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI66" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>25</v>
+      </c>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="1"/>
+    </row>
+    <row r="67" spans="27:41">
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC67" s="7">
+        <v>60</v>
+      </c>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="9">
+        <v>40</v>
+      </c>
+      <c r="AF67" s="7">
+        <v>17</v>
+      </c>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="9">
+        <v>83</v>
+      </c>
+      <c r="AI67" s="7">
+        <v>3</v>
+      </c>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="9">
+        <v>97</v>
+      </c>
+      <c r="AL67" s="8">
+        <v>100</v>
+      </c>
+      <c r="AM67" s="8"/>
+      <c r="AN67" s="9"/>
+      <c r="AO67" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="27:41">
+      <c r="AA68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>25</v>
+      </c>
+      <c r="AD68" s="3"/>
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>19</v>
+      </c>
+      <c r="AG68" s="3"/>
+      <c r="AH68" s="10">
+        <v>6</v>
+      </c>
+      <c r="AI68" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ68" s="3"/>
+      <c r="AK68" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL68" s="3">
+        <v>25</v>
+      </c>
+      <c r="AM68" s="3"/>
+      <c r="AN68" s="32"/>
+      <c r="AO68" s="1"/>
+    </row>
+    <row r="69" spans="27:41">
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC69" s="5">
+        <v>25</v>
+      </c>
+      <c r="AD69" s="13"/>
+      <c r="AE69" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="5">
+        <v>4</v>
+      </c>
+      <c r="AG69" s="13"/>
+      <c r="AH69" s="6">
+        <v>21</v>
+      </c>
+      <c r="AI69" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="6">
+        <v>24</v>
+      </c>
+      <c r="AL69" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="34"/>
+      <c r="AO69" s="1"/>
+    </row>
+    <row r="70" spans="27:41">
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC70" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="6">
+        <v>9</v>
+      </c>
+      <c r="AF70" s="5">
+        <v>4</v>
+      </c>
+      <c r="AG70" s="13"/>
+      <c r="AH70" s="6">
+        <v>21</v>
+      </c>
+      <c r="AI70" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL70" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM70" s="13"/>
+      <c r="AN70" s="34"/>
+      <c r="AO70" s="1"/>
+    </row>
+    <row r="71" spans="27:41">
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC71" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="6">
+        <v>23</v>
+      </c>
+      <c r="AF71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="6">
+        <v>25</v>
+      </c>
+      <c r="AI71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="6">
+        <v>25</v>
+      </c>
+      <c r="AL71" s="13">
+        <v>25</v>
+      </c>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="34"/>
+      <c r="AO71" s="1"/>
+    </row>
+    <row r="72" spans="27:41">
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC72" s="7">
+        <v>68</v>
+      </c>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="9">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" spans="27:41">
-      <c r="AA57" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB57" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC57" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE57" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF57" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI57" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK57" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL57" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO57" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="27:41">
-      <c r="AA58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB58" s="19">
-        <v>2</v>
-      </c>
-      <c r="AC58" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF58" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="14">
-        <v>25</v>
-      </c>
-      <c r="AJ58" s="15"/>
-      <c r="AK58" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL58" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM58" s="19"/>
-      <c r="AN58" s="22"/>
-      <c r="AO58" s="2"/>
-    </row>
-    <row r="59" spans="27:41">
-      <c r="AA59" s="16"/>
-      <c r="AB59" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC59" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="16">
-        <v>2</v>
-      </c>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="22">
-        <v>23</v>
-      </c>
-      <c r="AL59" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM59" s="2"/>
-      <c r="AN59" s="22"/>
-      <c r="AO59" s="2"/>
-    </row>
-    <row r="60" spans="27:41">
-      <c r="AA60" s="16"/>
-      <c r="AB60" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC60" s="16">
-        <v>23</v>
-      </c>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="22">
-        <v>2</v>
-      </c>
-      <c r="AF60" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="16">
-        <v>1</v>
-      </c>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="22">
+      <c r="AF72" s="7">
+        <v>27</v>
+      </c>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="9">
+        <v>73</v>
+      </c>
+      <c r="AI72" s="7">
         <v>24</v>
       </c>
-      <c r="AL60" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="22"/>
-      <c r="AO60" s="2"/>
-    </row>
-    <row r="61" spans="27:41">
-      <c r="AA61" s="16"/>
-      <c r="AB61" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC61" s="16">
-        <v>9</v>
-      </c>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="22">
-        <v>16</v>
-      </c>
-      <c r="AF61" s="16">
-        <v>25</v>
-      </c>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL61" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="22"/>
-      <c r="AO61" s="2"/>
-    </row>
-    <row r="62" spans="27:41">
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC62" s="17">
-        <v>82</v>
-      </c>
-      <c r="AD62" s="18"/>
-      <c r="AE62" s="21">
-        <v>18</v>
-      </c>
-      <c r="AF62" s="17">
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="9">
+        <v>76</v>
+      </c>
+      <c r="AL72" s="8">
         <v>100</v>
       </c>
-      <c r="AG62" s="18"/>
-      <c r="AH62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI62" s="17">
-        <v>28</v>
-      </c>
-      <c r="AJ62" s="18"/>
-      <c r="AK62" s="21">
-        <v>72</v>
-      </c>
-      <c r="AL62" s="18">
-        <v>100</v>
-      </c>
-      <c r="AM62" s="18"/>
-      <c r="AN62" s="21"/>
-      <c r="AO62" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="27:41">
-      <c r="AA63" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB63" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC63" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD63" s="15"/>
-      <c r="AE63" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="14">
+      <c r="AM72" s="8"/>
+      <c r="AN72" s="9"/>
+      <c r="AO72" s="1">
         <v>15</v>
       </c>
-      <c r="AG63" s="15"/>
-      <c r="AH63" s="20">
-        <v>10</v>
-      </c>
-      <c r="AI63" s="14">
-        <v>3</v>
-      </c>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="20">
-        <v>22</v>
-      </c>
-      <c r="AL63" s="15">
-        <v>25</v>
-      </c>
-      <c r="AM63" s="15"/>
-      <c r="AN63" s="41"/>
-      <c r="AO63" s="2"/>
-    </row>
-    <row r="64" spans="27:41">
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC64" s="16">
-        <v>23</v>
-      </c>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="22">
-        <v>2</v>
-      </c>
-      <c r="AF64" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG64" s="2"/>
-      <c r="AH64" s="22">
-        <v>24</v>
-      </c>
-      <c r="AI64" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ64" s="34"/>
-      <c r="AK64" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL64" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM64" s="2"/>
-      <c r="AN64" s="43"/>
-      <c r="AO64" s="2"/>
-    </row>
-    <row r="65" spans="27:41">
-      <c r="AA65" s="16"/>
-      <c r="AB65" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC65" s="16">
-        <v>9</v>
-      </c>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="22">
-        <v>16</v>
-      </c>
-      <c r="AF65" s="16">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="2"/>
-      <c r="AH65" s="22">
-        <v>24</v>
-      </c>
-      <c r="AI65" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ65" s="34"/>
-      <c r="AK65" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL65" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM65" s="2"/>
-      <c r="AN65" s="43"/>
-      <c r="AO65" s="2"/>
-    </row>
-    <row r="66" spans="27:41">
-      <c r="AA66" s="16"/>
-      <c r="AB66" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC66" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="22">
-        <v>22</v>
-      </c>
-      <c r="AF66" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG66" s="2"/>
-      <c r="AH66" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI66" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL66" s="2">
-        <v>25</v>
-      </c>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="2"/>
-    </row>
-    <row r="67" spans="27:41">
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC67" s="17">
-        <v>60</v>
-      </c>
-      <c r="AD67" s="18"/>
-      <c r="AE67" s="21">
-        <v>40</v>
-      </c>
-      <c r="AF67" s="17">
-        <v>17</v>
-      </c>
-      <c r="AG67" s="18"/>
-      <c r="AH67" s="21">
-        <v>83</v>
-      </c>
-      <c r="AI67" s="17">
-        <v>3</v>
-      </c>
-      <c r="AJ67" s="35"/>
-      <c r="AK67" s="21">
-        <v>97</v>
-      </c>
-      <c r="AL67" s="18">
-        <v>100</v>
-      </c>
-      <c r="AM67" s="18"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="27:41">
-      <c r="AA68" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB68" s="15">
-        <v>2</v>
-      </c>
-      <c r="AC68" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD68" s="15"/>
-      <c r="AE68" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="14">
-        <v>19</v>
-      </c>
-      <c r="AG68" s="15"/>
-      <c r="AH68" s="20">
-        <v>6</v>
-      </c>
-      <c r="AI68" s="14">
-        <v>22</v>
-      </c>
-      <c r="AJ68" s="15"/>
-      <c r="AK68" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL68" s="15">
-        <v>25</v>
-      </c>
-      <c r="AM68" s="15"/>
-      <c r="AN68" s="41"/>
-      <c r="AO68" s="2"/>
-    </row>
-    <row r="69" spans="27:41">
-      <c r="AA69" s="16"/>
-      <c r="AB69" s="19">
-        <v>3</v>
-      </c>
-      <c r="AC69" s="16">
-        <v>25</v>
-      </c>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="16">
-        <v>4</v>
-      </c>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="22">
-        <v>21</v>
-      </c>
-      <c r="AI69" s="16">
-        <v>2</v>
-      </c>
-      <c r="AJ69" s="2"/>
-      <c r="AK69" s="22">
-        <v>24</v>
-      </c>
-      <c r="AL69" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM69" s="19"/>
-      <c r="AN69" s="43"/>
-      <c r="AO69" s="2"/>
-    </row>
-    <row r="70" spans="27:41">
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="19">
-        <v>4</v>
-      </c>
-      <c r="AC70" s="16">
-        <v>16</v>
-      </c>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="22">
-        <v>9</v>
-      </c>
-      <c r="AF70" s="16">
-        <v>4</v>
-      </c>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="22">
-        <v>21</v>
-      </c>
-      <c r="AI70" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL70" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM70" s="19"/>
-      <c r="AN70" s="43"/>
-      <c r="AO70" s="2"/>
-    </row>
-    <row r="71" spans="27:41">
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="19">
-        <v>5</v>
-      </c>
-      <c r="AC71" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="22">
-        <v>23</v>
-      </c>
-      <c r="AF71" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="22">
-        <v>25</v>
-      </c>
-      <c r="AI71" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="2"/>
-      <c r="AK71" s="22">
-        <v>25</v>
-      </c>
-      <c r="AL71" s="19">
-        <v>25</v>
-      </c>
-      <c r="AM71" s="19"/>
-      <c r="AN71" s="43"/>
-      <c r="AO71" s="2"/>
-    </row>
-    <row r="72" spans="27:41">
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC72" s="17">
-        <v>68</v>
-      </c>
-      <c r="AD72" s="18"/>
-      <c r="AE72" s="21">
-        <v>32</v>
-      </c>
-      <c r="AF72" s="17">
-        <v>27</v>
-      </c>
-      <c r="AG72" s="18"/>
-      <c r="AH72" s="21">
-        <v>73</v>
-      </c>
-      <c r="AI72" s="17">
-        <v>24</v>
-      </c>
-      <c r="AJ72" s="18"/>
-      <c r="AK72" s="21">
-        <v>76</v>
-      </c>
-      <c r="AL72" s="18">
-        <v>100</v>
-      </c>
-      <c r="AM72" s="18"/>
-      <c r="AN72" s="21"/>
-      <c r="AO72" s="2">
-        <v>15</v>
-      </c>
     </row>
     <row r="74" spans="27:37">
-      <c r="AA74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AI74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ74" s="2"/>
-      <c r="AK74" s="2"/>
+      <c r="AA74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AI74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
     </row>
     <row r="75" spans="27:31">
-      <c r="AA75" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="12"/>
-      <c r="AD75" s="12"/>
-      <c r="AE75" s="12"/>
+      <c r="AA75" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB75" s="11"/>
+      <c r="AC75" s="11"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="48">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
@@ -6226,6 +6338,8 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="AA3:AA7"/>
     <mergeCell ref="AA8:AA12"/>
     <mergeCell ref="AA13:AA17"/>
